--- a/SGP_Mitra-main/app/data/Clinical_Data/Scenario_added.xlsx
+++ b/SGP_Mitra-main/app/data/Clinical_Data/Scenario_added.xlsx
@@ -476,15 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Little interest or pleasure in doing things" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It's light, humorous, and relatable.
-First, I should understand the essence of the original question. It's about a lack of interest or pleasure in activities. So, the scenario should reflect a situation where someone is supposed to enjoy something but doesn't feel like it.
-I need to make it realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous. Also, I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their response.
-Thinking about relatable activities that are usually enjoyable. Maybe something like planning a night out with friends, which is typically something people look forward to. But in this case, the user doesn't feel like it. That captures the lack of interest.
-So, the scenario could be: "You're supposed to plan a fun night out with friends, but the thought of it feels more like a chore than an adventure. What do you do?" This puts the user in a situation where they're expected to enjoy something but don't, and they have to choose how to respond.
-I think this fits the guidelines. It's realistic, short, and maintains the psychological aspect of the question. The response can be scaled based on how strongly the user feels about avoiding or engaging in the activity.
-&lt;/think&gt;
-You're supposed to plan a fun night out with friends, but the thought of it feels more like a chore than an adventure. What do you do?</t>
+          <t>You just scored tickets to your favorite band's concert, but today the thought of putting on real pants feels like climbing Mount Everest.  Your doorbell rings with a pizza delivery you were counting on for sustenance—plus, who skips concert fuel?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -495,12 +487,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PHQ-9 (Patient Health Questions)</t>
+          <t>PHQ-9</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -511,21 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Feeling down, depressed, or hopeless" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "Feeling down, depressed, or hopeless," I need a scenario that reflects those feelings but in a light way. Maybe something everyday that people can relate to, where the user feels stuck or unmotivated. Perhaps something involving a task they usually enjoy but can't muster the energy for.
-I should think of a common activity that's typically enjoyable but becomes a chore when feeling down. Maybe something like planning a fun night but not feeling up to it. Or maybe something simpler, like getting out of bed or responding to a message.
-Wait, the example uses a situation where the person is distracted, so maybe I can use a similar approach. Maybe something like being unable to start a task because of feeling down.
-Alternatively, think of a scenario where the person is faced with something they usually like, but today it feels overwhelming. For example, a friend inviting them out, but they don't feel like going. Or maybe something at home, like having to clean but not having the energy.
-I think the key is to make it relatable and light. Maybe something like "You were really looking forward to your favorite TV show, but now the remote feels too heavy to pick up. What do you do?" That captures the feeling of hopelessness or lack of energy.
-Alternatively, "Your favorite snack is right in front of you, but even that doesn't sound appealing. What's next?" Hmm, that might be too vague.
-Wait, maybe something involving a small task that feels impossible when feeling down. Like, "You've got a text from a friend asking to hang out, but the thought of responding feels like climbing a mountain. What do you do?"
-That seems to fit. It's a common situation, relatable, and the mountain climbing metaphor adds a bit of humor while conveying the effort required when feeling down.
-So, the scenario would be: "You've got a text from a friend asking to hang out, but the thought of responding feels like climbing a mountain. What do you do?"
-I think that works. It's short, relatable, uses a humorous metaphor, and captures the feeling of hopelessness or low energy.
-&lt;/think&gt;
-You've got a text from a friend asking to hang out, but the thought of responding feels like climbing a mountain. What do you do?</t>
+          <t>You wake up to the smell of freshly brewed coffee downstairs, but the thought of facing another day feels like dragging yourself through thick mud. Sunlight streams through the curtains, casting playful shadows on your room.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -541,7 +519,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -552,24 +530,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Trouble falling or staying asleep, or sleeping too much" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario was about reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and was relatable.
-First, I should think about the essence of the original question. It's about sleep issues—either having trouble falling asleep, staying asleep, or oversleeping. I need to capture that in a scenario where the user can imagine themselves and choose how they'd respond.
-I want to make it relatable and slightly humorous. Maybe something involving a common situation where someone is trying to sleep but can't, or they're sleeping too much. The example used a meme, which is modern and relatable, so perhaps I can use a similar approach.
-Let me brainstorm some ideas. Maybe something like scrolling through a phone late at night, which is a common issue that affects sleep. Or perhaps setting multiple alarms because they keep hitting snooze. Another idea is someone trying to fall asleep but their mind is racing, like thinking about random things.
-I think the phone scenario is good because it's something many people can relate to. So, the scenario could be about lying in bed, scrolling through the phone, and noticing the time getting late. The user has to decide what to do next.
-I should make it light and funny. Maybe mention something about the brain being a rebel or something humorous about the situation. Also, it should be concise, just a couple of sentences.
-Putting it together: "You're lying in bed, scrolling through your phone, and suddenly it's 2 AM. What do you do next?" That captures the trouble of falling asleep because of phone use, which is a common issue. It's relatable, short, and allows the user to imagine their response.
-Wait, but the original question also includes sleeping too much. Hmm, maybe I should adjust it to include that aspect. Alternatively, perhaps create two scenarios, but the user asked for one. Maybe the scenario can imply either staying up too late or oversleeping.
-Alternatively, maybe the scenario is about hitting snooze multiple times, which relates to oversleeping. But I think the phone scenario is more about trouble falling asleep. Maybe I can combine both ideas.
-Wait, perhaps the scenario can be about someone who's either wide awake at night or sleeping in late. But it's tricky to combine both in one scenario. Maybe it's better to focus on one aspect since the question includes both. Alternatively, make the scenario neutral enough to cover both possibilities.
-Alternatively, think of a situation where the user is in a loop of waking up and sleeping. Maybe something like, "You set your alarm for 7 AM, but when it goes off, you hit snooze and end up sleeping until noon. What do you do?"
-But that's more about oversleeping. The original question includes both trouble falling asleep and oversleeping. Maybe the scenario should allow for either response.
-Alternatively, perhaps the scenario is about the user's bedtime routine. For example, "You're trying to wind down for bed, but your brain decides it's the perfect time to think about everything you forgot to do today. What do you do?"
-That captures the trouble of falling asleep because the mind is racing. It's relatable and humorous. It also allows the user to choose how they'd respond, whether they try to relax, get up, or something else.
-I think that's a good approach. It's concise, relatable, and captures the essence of the original question without being too specific about how often it happens. It also uses a light and slightly humorous tone.
-&lt;/think&gt;
-You're trying to wind down for bed, but your brain decides it's the perfect time to think about everything you forgot to do today. What do you do?</t>
+          <t>Your alarm clock is flashing like a disco ball at 6 AM, signaling the start of a beautiful day with a mountain of sunshine and a perfectly brewed cup of coffee waiting. You’re nestled under the covers, pondering the allure of dreams versus the promise of that first sip.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -585,7 +546,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -596,14 +557,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Feeling tired or having little energy" into a fun and engaging real-life scenario for a mental wellness app. The example provided was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and was relatable.
-First, I should think about a situation where someone feels tired or low on energy. Maybe something common that people can relate to, like a morning routine. Waking up late and hitting the snooze button is a classic scenario. It's something many people experience and can easily imagine themselves in.
-Next, I need to add a bit of humor to make it engaging. Instead of just saying "hitting snooze," I can personify the snooze button as a tempting friend. This adds a playful element. The user has to decide whether to give in to the snooze button or get up. This choice reflects how they handle their energy levels in the morning.
-I should keep the scenario short, just one or two sentences. It should be realistic and capture the essence of feeling tired without using phrases like "how often" or "do you feel." The response should allow the user to imagine their reaction, which can then be scaled (e.g., 0-4) based on how strongly they feel about hitting snooze or getting up.
-Putting it all together, the scenario should be something like waking up late, the snooze button tempting them, and deciding what to do next. This setup is relatable, light-hearted, and captures the feeling of low energy in a humorous way.
-&lt;/think&gt;
-Your alarm blares, and you've already hit snooze three times. The snooze button is calling your name like an old friend, but so is that coffee you promised yourself. What do you do?</t>
+          <t>Sunrise peeks through the curtains, casting warm stripes on your cozy bed. A notification pops up on your nightstand: "Morning jog with the park crew starts in 10 minutes!"  You could easily burrow deeper under the blankets... or maybe the promise of fresh air and a good sweat is too tempting to resist.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -619,7 +573,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -630,22 +584,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Poor appetite or overeating" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, turning it into a relatable and slightly humorous situation where the user imagines themselves reading a meme caption repeatedly because their brain wandered off. The response should capture the psychological essence without using phrases like "how often" or "do you feel."
-First, I should think about what "poor appetite or overeating" really means. It's about changes in eating habits, which can be a sign of stress, anxiety, or other emotional states. So, the scenario should present a situation where the user is faced with a choice about eating, reflecting either a lack of appetite or overeating.
-I need to make it light and relatable. Maybe something involving food, since that's the context. The example used a meme, which is modern and relatable. I should think of a similar everyday situation that people can easily imagine themselves in.
-Perhaps something like being in the kitchen, looking at food, and feeling either uninterested or overly tempted. Let me brainstorm a few ideas.
-1. You're staring at a delicious meal, but it just doesn't appeal to you. What do you do?
-2. You're at a party with lots of snacks, and you're not sure if you're hungry or just bored. What's your move?
-3. You open the fridge and either can't find anything appealing or want to eat everything. What happens next?
-I think the third option is good because it's a common scenario—opening the fridge and deciding what to do. It captures both poor appetite and overeating. Now, I need to add a bit of humor or lightness to it.
-Maybe something like, "You open the fridge and find yourself either uninterested in everything or tempted by all the leftovers. What do you do?" But I can make it more engaging.
-How about: "You're standing in front of the fridge, staring at last night's leftovers. Part of you is meh, but another part is like, 'Why not?'" That adds a bit of internal conflict and humor.
-Wait, the example used a situation where the user is in the middle of an action (reading a meme) and then has to decide what to do next. So maybe I should structure it similarly.
-"You're standing in front of the fridge, staring at last night's leftovers. Part of you is meh, but another part is like, 'Why not?'" Then the user has to choose what they would do next, which reflects their tendency towards poor appetite or overeating.
-I think that works. It's short, realistic, and captures the essence of the question without being too clinical. It also uses a relatable situation that many people can imagine themselves in.
-&lt;/think&gt;
-You're standing in front of the fridge, staring at last night's leftovers. Part of you is meh, but another part is like, 'Why not?' What do you do?</t>
+          <t>You just stumbled upon a homemade batch of your grandma’s famous cookies cooling on the kitchen counter. The aroma fills the room, but as you glance at your empty stomach, your body seems to weigh the options: cozy on the couch or a dash to the fridge.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -661,7 +600,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -672,15 +611,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Feeling bad about yourself — or that you are a failure or have let yourself or your family down" into a fun, engaging real-life scenario. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their next move. It should capture the psychological essence but in a way that's suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and sets up a clear scenario.
-So, for the given question, I need to create a similar scenario. The feeling of failure or letting oneself or family down is a heavy topic, so I need to present it in a light way. Maybe something involving a common situation where someone might feel like they've failed, but with a humorous twist.
-Perhaps something like burning cookies in the oven, which is a relatable mishap. It's a simple, everyday situation that can lead to feelings of inadequacy. Adding a funny element, like the smoke alarm going off and the family's reaction, makes it more engaging.
-So, the scenario could be: "You've just burned the cookies you were supposed to bake for the family gathering, and now the smoke alarm is having a loud opinion about your culinary skills. What do you do next?" This sets up a situation where the user feels like they've failed (burning cookies) and might feel they've let their family down. The humor comes from the smoke alarm's "loud opinion," making it relatable and light.
-I think this captures the essence of feeling like a failure or letting others down but presents it in a way that's not too heavy. The user can then imagine how they'd respond, which ties into the scale of how strongly they feel that emotion or how they'd react in such a situation.
-&lt;/think&gt;
-You've just burned the cookies you were supposed to bake for the family gathering, and now the smoke alarm is having a loud opinion about your culinary skills. What do you do next?</t>
+          <t>Your family surprises you with a spontaneous picnic in the park, complete with your favorite snacks. As you hear laughter and footsteps approaching your bedroom door, you consider whether to emerge with a warm smile or curl deeper into your blanket fort of self-doubt.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -696,7 +627,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -707,18 +638,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Trouble concentrating on things, such as reading the newspaper or watching television" into a fun, engaging real-life scenario for a mental wellness app. The example given was about reading a meme caption multiple times because the brain wandered off. I should follow that style.
-First, I need to think of a relatable situation where someone is trying to focus on something like reading or watching TV but can't concentrate. Maybe something humorous and light. The example used a meme, so perhaps I can use a similar approach but with a different activity.
-I should avoid phrases like "how often" and instead describe a specific moment. The scenario should be short, 1-2 sentences, and capture the essence of trouble concentrating. It should also allow the user to imagine their response and choose how they would react on a scale.
-Let me brainstorm some ideas. Maybe someone is trying to watch their favorite show but keeps getting distracted. Or they're reading a book but can't focus. I need to make it funny and relatable.
-How about this: "You're trying to watch your favorite show, but you've rewound the same scene three times because your mind keeps drifting off to what's for dinner. What do you do next?" That seems to fit. It's a common situation, slightly humorous, and captures the trouble concentrating.
-Wait, the example used a meme, so maybe I can make it a bit more specific. Maybe instead of dinner, something else. Or perhaps use a different activity. Let me think again.
-Alternatively, "You're halfway through a TV show episode but can't remember what's happening because your thoughts are elsewhere. Do you rewind or let it go?" Hmm, that's a bit more direct but still light.
-I think the first idea is better because it adds a humorous twist with dinner, making it more engaging. It also clearly shows the trouble concentrating by rewinding the same scene multiple times.
-So, the scenario would be: "You're trying to watch your favorite show, but you've rewound the same scene three times because your mind keeps drifting off to what's for dinner. What do you do next?" This fits the guidelines and captures the essence of the question.
-&lt;/think&gt;
-You're trying to watch your favorite show, but you've rewound the same scene three times because your mind keeps drifting off to what's for dinner. What do you do next?</t>
+          <t>You just got comfy on the couch with the Sunday paper and a steaming mug of coffee. The TV remote is within arm's reach, promising the latest binge-worthy show. Suddenly, the crossword puzzle on the first page stares back at you, looking more daunting than usual.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -734,7 +654,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -745,18 +665,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the given clinical question into a fun, engaging real-life scenario for a mental wellness app. The question is about whether someone is moving or speaking slowly, or the opposite, being fidgety and restless. 
-First, I should understand the original question. It's about two extremes: either being so slow that others notice, or being so restless that others notice. The scenario needs to capture both possibilities.
-The example provided was about trouble concentrating, and the scenario was reading a meme caption multiple times because the brain wandered off. It's light, relatable, and humorous.
-I need to create a situation where the user can imagine themselves in a moment where they might be either slow or restless. Maybe a common situation where both behaviors would be noticeable.
-Let me think of a relatable setting. Maybe something like being in a coffee shop, which is a common place where people might observe others. It's a place where you might be waiting in line, which can be a moment where your behavior is noticeable.
-So, the scenario could involve waiting in line at a coffee shop. If someone is moving or speaking slowly, others might notice, especially if the line is moving quickly. On the other hand, if someone is fidgety, maybe they're tapping their feet or moving around a lot, which could also draw attention.
-I should make it light and slightly humorous. Maybe add something about the barista waiting or people behind in line. That adds a bit of pressure, making the scenario more engaging.
-Putting it together: "You're at a cozy coffee shop, and it's your turn to order. The barista is waiting, and so is the line behind you. Are you moving slower than the coffee shop Wi-Fi, or are you bouncing around like a triple-shot espresso?"
-This captures both extremes, uses a relatable setting, and adds humor with the Wi-Fi and espresso comparisons. It's short and to the point, fitting the guidelines.
-&lt;/think&gt;
-You're at a cozy coffee shop, and it's your turn to order. The barista is waiting, and so is the line behind you. Are you moving slower than the coffee shop Wi-Fi, or are you bouncing around like a triple-shot espresso?</t>
+          <t>You just got that text from your friend inviting you to an impromptu park picnic. As you reach for your phone, you realize you’re either slumped in your chair, barely managing to lift your fingers, or bouncing on the balls of your feet, already mentally unpacking the cooler.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -772,7 +681,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -783,24 +692,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the given clinical question into a fun, engaging real-life scenario for a mental wellness app. The question is about having thoughts of self-harm or being better off dead. Hmm, this is a sensitive topic, so I need to approach it carefully.
-First, I should make sure the scenario is light and slightly humorous but still realistic. It shouldn't be too heavy or triggering. Maybe something that shows the struggle but in a relatable way.
-The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times. So, I need something similar—everyday situations that people can imagine themselves in.
-I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their response. The scenario should capture the psychological essence without being direct.
-Thinking about the original question, it's about intrusive or harmful thoughts. So, maybe a situation where the user is dealing with such thoughts but in a way that's metaphorical or indirect.
-Perhaps something like being in a situation where negative thoughts are personified as something else, like a song or a voice. That way, it's relatable without being too intense.
-I need to keep it short, just 1-2 sentences. Let me brainstorm some ideas. Maybe something like "You're trying to enjoy your favorite show, but that one negative thought keeps popping up like a stubborn pop-up ad. What do you do?"
-Wait, that's similar to the example. Maybe I can make it a bit more specific to the original question. How about something involving self-care or daily activities?
-Alternatively, "You're at a coffee shop, and your mind starts serving up thoughts that feel heavier than your coffee. How do you handle it?" Hmm, that's a bit abstract but still relatable.
-I think the key is to present the situation in a way that's non-threatening but still conveys the struggle. Using everyday scenarios helps users imagine themselves in that moment without feeling overwhelmed.
-So, maybe something like: "You're scrolling through social media, and suddenly, a wave of thoughts washes over you, making it hard to breathe. What's your next move?"
-Wait, that might be too intense. I need to keep it light. Maybe using a metaphor like a song or a voice that won't go away.
-How about: "You're trying to relax, but your mind keeps playing the same negative track on repeat. What do you do to change the tune?"
-That's better. It uses a metaphor, is relatable, and keeps the tone light. It also allows the user to imagine how they would respond, which is the goal.
-I think that works. It's short, realistic, and captures the essence of the original question without being too direct or heavy.
-&lt;/think&gt;
-You're trying to relax, but your mind keeps playing the same negative track on repeat. What do you do to change the tune?</t>
+          <t>You just woke up to a beautiful, sunny day outside your window, birds chirping merrily. On your nightstand, next to your alarm clock, is a note you wrote last night contemplating a big change, hinting at some tough thoughts. The world outside seems inviting, but your immediate urge right now is to either burrow deeper into the blankets or open the window wide and let the fresh air in, ready to face whatever comes next.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -816,7 +708,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -827,15 +719,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Feeling nervous, anxious, or on edge" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It's light, humorous, and relatable.
-First, I should think about situations where someone might feel nervous or anxious. Common scenarios could be social situations, like meeting new people, public speaking, or maybe something like waiting for important news. The example used a relatable, everyday situation, so I should aim for something similar.
-I want to make it light and slightly humorous. Maybe something involving a social event where the person feels out of place or overwhelmed. Coffee shops are relatable places, and ordering can sometimes be a point of anxiety for some people, especially if they're in a hurry or feeling pressured.
-So, perhaps the scenario is about someone in a busy coffee shop, feeling the pressure to order quickly, and they start to feel nervous or anxious. The barista is waiting, and the person is overwhelmed by the choices or the rush. This captures the feeling of being on edge without being too heavy.
-I should make sure the scenario is short, just 1-2 sentences, and ends with a question that prompts the user to imagine their response. The response should tie into a scale, so the scenario needs to clearly present a moment where the user's anxiety or nervousness is triggered.
-Putting it all together, the scenario could be: "You're at a bustling coffee shop, and as you step up to order, the barista is staring at you expectantly while the line grows behind you. What do you do?" This sets up a relatable situation where feeling nervous or anxious is natural, and the user can imagine how they'd react.
-&lt;/think&gt;
-You're at a bustling coffee shop, and as you step up to order, the barista is staring at you expectantly while the line grows behind you. What do you do?</t>
+          <t>You just got an unexpected email from your boss asking if you can lead an important project meeting tomorrow. Your heart skips a beat as you glance at the clock—it's already late afternoon. The comfy couch is calling your name, but the meeting outline looms in your mind.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -846,12 +730,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GAD-7 (General Anxiety Disorder)</t>
+          <t xml:space="preserve">GAD-7 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -862,17 +746,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Not being able to stop or control worrying" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and ended with a question about the user's next move.
-First, I should think about a relatable situation where someone can't stop worrying. Worrying often feels like it's spiraling out of control, so maybe something that visually represents that, like a train of thought that's hard to stop. The example used a meme, so maybe something similar but different. Maybe something like a train or a conveyor belt.
-I want to keep it light and slightly humorous. So, perhaps something like being on a train that won't stop, which metaphorically represents the worrying thoughts. The user is trying to enjoy their day, but the train (worries) keeps going. Then, the question is about what they do next, allowing the user to choose their response.
-I should make sure the scenario is short, just 1-2 sentences, and avoids phrases like "how often." It should capture the essence of not being able to control worrying without being too heavy. The response should be suitable for a scale, so the scenario needs to present a clear situation where the user's reaction can vary in strength or type.
-Putting it all together, maybe something like: "You're trying to enjoy a peaceful Sunday morning, but your worries are like a train that won't stop moving. What do you do next?" That's two sentences, uses a metaphor, and is relatable. It also ends with a question about their next move, which fits the example structure.
-Wait, the example used a more specific scenario with a meme, so maybe I can make it a bit more specific. Instead of a train, maybe something like a conveyor belt of worries. So, "You're standing on a conveyor belt of worries that you can't seem to step off of. What's your next move?" Hmm, that's a bit abstract. Maybe the train metaphor is better because it's more visual and relatable.
-Alternatively, using a different metaphor, like a merry-go-round, but that might not convey the same sense of unstoppable motion. The train seems to work well because it's something that moves continuously without stopping unless intervened.
-So, finalizing the scenario: "You're trying to enjoy a peaceful Sunday morning, but your worries are like a train that won't stop moving. What do you do next?" That should fit the guidelines and effectively capture the essence of the clinical question in a fun and engaging way.
-&lt;/think&gt;
-You're trying to enjoy a peaceful Sunday morning, but your worries are like a train that won't stop moving. What do you do next?</t>
+          <t>You just remembered you left the oven on while rushing out this morning. Your heart sinks, then leaps repeatedly as you imagine worst-case scenarios alternating with quick mental checks of your smoke alarm's status. The remote is within arm's reach, beckoning you back to the comforting haze of your blanket fort.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -888,7 +762,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -899,16 +773,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the question "Worrying too much about different things" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and ended with a question about the user's next move.
-First, I should think about a relatable situation where someone might worry excessively about various things. Maybe something common like planning an event or a casual gathering. People often worry about different aspects when organizing something, like the weather, food, guests, etc.
-I want to make it humorous, so maybe exaggerate the worrying a bit. Instead of just worrying about one thing, the person is worrying about multiple things, like the weather, the food, and the guest's reactions. Using a party scenario could be relatable and fun.
-I should keep it short, just a couple of sentences. The scenario should end with a question that prompts the user to choose how they would respond, which will be tied to a scale later. The tone needs to be light and slightly humorous to keep it engaging.
-Let me try to draft it: "You're planning a casual game night, but your brain has turned it into a potential disaster movie—'What if the pizza is late? What if the board games are boring? What if someone hates the snacks?' What do you do next?"
-Hmm, that seems to fit. It's relatable, uses a common situation, adds humor by comparing it to a disaster movie, and ends with a question about the user's next action. It captures the essence of worrying too much about different things without using phrases like "how often" or "do you feel."
-I think this works. It's concise, realistic, and maintains the psychological aspect of the original question while making it fun and engaging.
-&lt;/think&gt;
-You're planning a casual game night, but your brain has turned it into a potential disaster movie—'What if the pizza is late? What if the board games are boring? What if someone hates the snacks?' What do you do next?</t>
+          <t>Your favorite cozy blanket is calling your name on a chilly morning, but your mind keeps buzzing with worries about upcoming deadlines, forgotten appointments, and that looming pile of bills. You hear your cheerful alarm clock singing, "Rise and shine!" but all you want to do is burrow deeper.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -924,7 +789,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -935,24 +800,8 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Trouble relaxing" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and they turned it into a relatable situation with a meme caption. I should follow that style.
-First, I need to think of a common situation where someone might have trouble relaxing. Maybe something like after work, when you're supposed to unwind but can't. What activities do people do to relax? Watching TV, reading, maybe taking a bath.
-I want to add some humor. Maybe something unexpected happens that disrupts their relaxation. Like a phone buzzing with notifications or a pet causing a mess. Or maybe something more relatable, like their mind racing despite trying to relax.
-Let me think of a scenario. Perhaps they're trying to watch their favorite show, but their mind keeps wandering. Or they're lying in bed, but their thoughts won't let them relax. Or maybe they're trying to meditate, but it's not working.
-Wait, the example used a meme, which is light and funny. Maybe I can use a similar approach. So, something like, "You're trying to enjoy a quiet evening at home, but your brain is like a hyperactive puppy that just won't calm down. What do you do?"
-Hmm, that's a bit long. Let me make it shorter. Maybe, "You're attempting to unwind after a long day, but your mind is racing like a runaway train. What's your next move?"
-Or, "You're sitting on the couch, ready to relax, but your thoughts are doing backflips. How do you handle it?"
-Wait, the example used a specific activity, like reading a meme. Maybe I should tie it to a specific activity. Like, "You're trying to watch your favorite show, but your brain keeps jumping to your to-do list. What do you do?"
-Or, "You've got a cup of tea and a book, but your mind is a million miles away. How do you react?"
-I think the key is to make it relatable and add a bit of humor. Maybe something like, "You're all set for a chill night in, but your brain is like, 'Nah, let's think about everything else!' What's your move?"
-Or, "You're lying in bed, ready to relax, but your thoughts are having a party. What do you do?"
-I think the first one I came up with is better: "You're attempting to unwind after a long day, but your mind is racing like a runaway train. What's your next move?" It's concise, relatable, and has a bit of humor with the runaway train analogy.
-Wait, but the example used a specific scenario with a meme. Maybe I should make it more specific. Like, "You're trying to enjoy a quiet evening, but your brain won't stop buzzing. What do you do?"
-Or, "You're sitting with a book, but your mind is elsewhere. How do you handle it?"
-I think the first version I had is good. It captures the essence of trouble relaxing by using a common situation and a humorous analogy.
-&lt;/think&gt;
-You're attempting to unwind after a long day, but your mind is racing like a runaway train. What's your next move?</t>
+          <t>Your favorite cozy blanket is calling your name, and outside, the sun is teasing you with hints of a perfect spring day through the curtains.  A gentle breeze might just sway the trees into a soothing dance if you were to step outside.  
+[Slider: Stay wrapped up in your blanket (0) to Jumping out of bed to join the day (5)]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -968,7 +817,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -979,19 +828,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Being so restless that it is hard to sit still" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and made the situation relatable.
-First, I should think about what "being so restless that it is hard to sit still" feels like in everyday life. Restlessness can manifest as fidgeting, moving around a lot, or feeling the urge to do something active. I need to create a scenario that captures that feeling without using phrases like "how often" or "do you feel."
-I want the scenario to be short, maybe 1-2 sentences, and set in a common situation. Maybe something like being in a meeting or a class where you're supposed to sit still but can't. Adding a bit of humor would make it more engaging. Perhaps something involving a pet or an object that adds to the restlessness, like a wiggly dog or a bouncy chair.
-Let me brainstorm a few ideas. Maybe sitting in a meeting where the chair is uncomfortable, or being in a class with a hyperactive pet nearby. Or perhaps at a family dinner where you can't sit still and your leg starts tapping. I need to make sure the scenario is relatable and light-hearted.
-I think using a situation where the user is trying to focus but can't because of restlessness. Maybe something like being in a meeting where the chair is bouncy, and the user's leg starts tapping uncontrollably. Or maybe at a coffee shop where the user can't sit still and keeps adjusting their position.
-Wait, the example used a meme, which is modern and relatable. Maybe I can use a similar approach. How about being in a situation where you're supposed to be still, but your body has other plans. Maybe something like trying to watch a movie but your legs won't stop moving.
-I think the key is to make it humorous and relatable. So, perhaps something like, "You're in a meeting where everyone's supposed to be focused, but your leg has decided it's time to tap out its own rhythm. What do you do?" That captures the restlessness and adds a bit of humor with the tap dancing reference.
-Alternatively, maybe a scenario involving a pet, like a dog that won't sit still, prompting the user to move around. Or perhaps being in a waiting room where the chairs are uncomfortable, making it hard to sit still.
-I think the first idea about the meeting and the leg tapping is good. It's relatable, short, and has a humorous twist. It also clearly conveys the feeling of restlessness without being too clinical.
-So, putting it all together, the scenario would be: "You're in a meeting where everyone's supposed to be focused, but your leg has decided it's time to tap out its own rhythm. What do you do?" This way, the user can imagine themselves in that situation and choose how they would respond, which aligns with the guidelines provided.
-&lt;/think&gt;
-"You're in a meeting where everyone's supposed to be focused, but your leg has decided it's time to tap out its own rhythm. What do you do?"</t>
+          <t>You just got that new coffee from your favorite café, and you’re standing at the bus stop. The aroma fills your nostrils, and the sun is shining just right. Suddenly, a burst of energy makes you want to tap dance right there until the bus arrives.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1007,7 +844,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1018,21 +855,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the question "Becoming easily annoyed or irritable" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their reaction. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and sets up a clear scenario where the user can imagine their reaction.
-So, for "Becoming easily annoyed or irritable," I need a situation where someone might feel annoyed. Maybe a common, everyday situation that's mildly frustrating. Something like a roommate, partner, or family member doing something that's a pet peeve. For example, someone leaving dishes in the sink, or maybe someone being loud when you're trying to relax.
-I should make it light and humorous. Maybe something like a roommate doing something quirky but slightly annoying. Let's think of a situation where the user comes home and finds something that could be irritating. Maybe the roommate has done something that's a bit inconsiderate but not major, like borrowing clothes without asking or leaving a mess.
-Wait, the example uses a situation where the user is directly affected, like someone else's action impacting them. So, perhaps the roommate has left their dirty socks on the floor, or maybe they've eaten the user's food. Or maybe they're being noisy when the user is trying to focus or relax.
-I think the key is to make it relatable and a bit funny. So, maybe something like the roommate has not only left the cap off the toothpaste but also squeezed it from the middle, which is a common annoyance. Or perhaps they've played music loudly early in the morning.
-Wait, the example uses a situation where the user is reading a meme and their brain wanders, which is more about concentration. For irritation, maybe a situation where someone else's action is causing mild frustration.
-So, perhaps: "You come home after a long day and find that your roommate has not only left the cap off the toothpaste but also squeezed it from the middle. What do you do?" That's relatable, a bit humorous, and sets up a situation where the user can choose how to react, indicating their level of irritation.
-Alternatively, maybe a scenario involving noise, like a neighbor playing music loudly. But the roommate scenario feels more personal and everyday.
-Another idea: "Your roommate has 'borrowed' your favorite snack and left the wrapper on the couch. How do you handle it?" It's a minor annoyance but something that could trigger irritation.
-I think the toothpaste scenario is good because it's a common pet peeve and can be played for humor. The squeezing from the middle is a specific detail that adds to the annoyance factor.
-So, the scenario would be: "You come home after a long day and find that your roommate has not only left the cap off the toothpaste but also squeezed it from the middle. What do you do?" It's concise, relatable, and humorous, allowing the user to imagine their reaction and choose how they'd respond on a scale.
-&lt;/think&gt;
-You come home after a long day and find that your roommate has not only left the cap off the toothpaste but also squeezed it from the middle. What do you do?</t>
+          <t>You just got stuck in that slow-moving checkout line at the grocery store, right when you were in a rush to get home and relax. The person in front of you is debating between two brands of jam, taking forever to decide.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1048,7 +871,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1059,18 +882,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Feeling afraid, as if something awful might happen" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for the question about feeling afraid that something awful might happen, I need a scenario that evokes that feeling in a light way. Maybe something common that people can relate to, like a sudden noise or an unexpected event. I should add a bit of humor to make it engaging without making light of the fear itself.
-Perhaps something like hearing a strange noise at night. That's a common fear trigger. I can add a humorous twist, like the noise sounding like a monster or something, to keep it light. Then, ask what the user would do next, which allows them to choose their response.
-Let me try drafting it: "You're home alone when you hear a strange creaking noise that sounds suspiciously like a monster under your bed. What do you do?" Hmm, that's good, but maybe make it a bit more specific or add a bit more humor. Alternatively, "You're lying in bed when you hear a mysterious thud downstairs. What's your next move?" That's concise and relatable.
-Wait, the example used a more exaggerated scenario with a parallel universe, so maybe I can make it a bit more playful. How about: "You're cozy in bed when a sudden bump in the night makes you jump. What do you do?" It's short, relatable, and has a bit of humor.
-Alternatively, "You're watching a scary movie when the lights flicker. What's your move?" But that might be too specific. I think the first idea about a strange noise at night is better because it's a common situation and can be made humorous.
-Let me refine it: "You're home alone and hear a strange noise that sounds like someone (or something) is in the house. What do you do?" That's clear and sets up the scenario well. It allows the user to imagine their response, whether it's investigating, hiding, or something else.
-I think that's a solid scenario. It captures the feeling of fear that something awful might happen, presents it in a relatable and slightly humorous way, and invites the user to choose their action. It's concise and fits the guidelines provided.
-&lt;/think&gt;
-You're home alone and hear a strange noise that sounds like someone (or something) is in the house. What do you do?</t>
+          <t>Your friend calls inviting you to an impromptu adventure—think hiking with stunning views or trying out that new escape room. The thought sends a shiver down your spine not because of excitement, but because of a sudden wave of worry about potential mishaps along the way.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1086,7 +898,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1097,20 +909,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I found it hard to wind down" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their next move. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I found it hard to wind down," I need a scenario where the person is trying to relax but can't. Maybe something common like after work or before bed. Maybe they're doing something that's supposed to help them unwind, but it's not working. Maybe their mind is racing or they're restless.
-I should think of a situation that's universally relatable. Perhaps they're trying to watch TV or read a book but can't focus. Or maybe they're lying in bed but can't sleep. Adding a humorous twist would make it engaging.
-Let me brainstorm some ideas. Maybe they're trying to relax after a long day, but their brain won't shut off. Or they're doing an activity that's supposed to be calming, but it's not helping. Maybe they're switching between different relaxation methods without success.
-I think the example given in the response is good: "You’ve been staring at the same TV show for 20 minutes but your brain is still running a mental marathon. What do you do next?" It's relatable because many people zone out in front of the TV, and the mental marathon metaphor is funny and accurate.
-I should make sure the scenario is concise and captures the essence of struggling to wind down. The user should be able to imagine themselves in that situation and think about how they would react. The response should allow for a scale, so the scenario needs to present a clear moment where the user can choose their action.
-Another angle could be trying to meditate or do something calming but failing. For example, "You've lit the candles, played the soothing music, but your mind is still racing like a jackrabbit on caffeine. What's your next move?" But maybe that's a bit too elaborate.
-Alternatively, "You're lying in bed, but your thoughts are doing laps around the track. Do you..." That's concise but maybe not as humorous.
-I think the TV scenario is strong because it's a common activity people use to unwind, and the contrast between the passive activity and the active brain creates humor. It also clearly shows the struggle to wind down.
-So, to sum up, the scenario should present a relatable situation where the person is trying to relax but can't, using humor to make it engaging. The example provided does this well, so I can model my scenario similarly.
-&lt;/think&gt;
-You’ve been staring at the same TV show for 20 minutes but your brain is still running a mental marathon. What do you do next?</t>
+          <t>The clock ticks past your bedtime, but your favorite show just started its final episode.  The couch is calling, and the remote is within reach.  📺😴</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1126,7 +925,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1137,14 +936,8 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was aware of dryness of my mouth" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and they turned it into a relatable situation with a meme. 
-First, I should think about a common situation where someone might feel their mouth getting dry. Maybe something like giving a presentation or public speaking, which can cause nervousness and dry mouth. That's a relatable scenario because many people have been in such situations.
-Next, I need to add a bit of humor to make it light and engaging. Instead of just saying "your mouth feels dry," I can exaggerate it a bit, like comparing it to something funny, such as the Sahara Desert. That makes it more vivid and humorous.
-I should also make sure the scenario is short, just one or two sentences. So, putting it all together, I can say something like, "You're about to give a big presentation and your mouth feels as dry as the Sahara Desert. What do you do next?" This captures the feeling of dryness and puts it in a real-life context where the user can imagine themselves and choose a response.
-I think this fits the guidelines because it's realistic, uses humor, and avoids any phrases like "how often." It also keeps the psychological aspect of being aware of physical symptoms, which is what the original question is about.
-&lt;/think&gt;
-You're about to give a big presentation and your mouth feels as dry as the Sahara Desert. What do you do next?</t>
+          <t>You just woke up to the irresistible aroma of freshly brewed coffee wafting through your apartment, promising a crisp, new day. However, as you stretch, you realize your mouth feels like a desert.  
+[Slider: 0 (curled up deeper in blankets) to 5 (sprinted to the kitchen with a smile)]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1160,7 +953,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1171,17 +964,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I couldn’t seem to experience any positive feeling at all" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and ended with a question about the user's next move.
-First, I should understand the essence of the original question. It's about not feeling any positive emotions. So, the scenario should reflect a situation where the user is in a moment where positive feelings are expected, but they're not experiencing any.
-I need to make it relatable and realistic. Maybe a common situation where people usually feel happy or excited. Something like a party, a celebration, or a fun event. Let's think about a birthday party because it's a universal scenario where positive emotions are expected.
-Now, to add humor and lightness. Maybe the user is surrounded by things that should bring joy but they're just not feeling it. Balloons, cake, friends laughing—these are all positive elements. The user could be holding a party hat but not feeling the excitement. That contrast can be humorous.
-I should keep it short, just 1-2 sentences. The example had two sentences. So, I'll structure it similarly. The first sentence sets the scene, the second invites the user to imagine their reaction.
-I need to avoid phrases like "how often" or "do you feel." Instead, describe the situation and let the user imagine their response. The scenario should still capture the psychological aspect of not experiencing positive feelings.
-Putting it all together: "You're at a birthday party surrounded by laughing friends, a giant cake, and enough balloons to lift a small car, but the only thing you're feeling is... well, nothing. What do you do next?"
-This scenario is relatable, uses a common situation, adds humor with the balloons lifting a car, and invites the user to think about their reaction without directly asking about their feelings. It fits the guidelines and maintains the psychological essence of the original question.
-&lt;/think&gt;
-You're at a birthday party surrounded by laughing friends, a giant cake, and enough balloons to lift a small car, but the only thing you're feeling is... well, nothing. What do you do next?</t>
+          <t>Your favorite band just announced a surprise concert tickets going live at midnight. Your room is cozy, the bed is warm, and Netflix is cued up. Suddenly, your phone buzzes with a notification about the concert.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1197,7 +980,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1208,18 +991,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I experienced breathing difficulty (e.g., excessively rapid breathing, breathlessness in the absence of physical exertion)" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. 
-First, I should understand the original question. It's about experiencing breathing difficulties, like rapid breathing or breathlessness without physical exertion. This could be related to anxiety or stress. 
-The example given was about trouble concentrating, and the scenario was reading a meme caption multiple times because the brain wandered off. It's light, humorous, and relatable. So I need to create something similar but about breathing difficulty.
-I should think of a common, relatable situation where someone might feel out of breath without exercising. Maybe something sudden and unexpected. Perhaps something like receiving surprising news or a stressful situation. 
-Let me brainstorm some ideas. Maybe getting an unexpected message, like a text from an ex or an urgent email from work. Or maybe something like spilling coffee all over a new shirt before an important meeting. These are relatable and can cause a physical reaction like rapid breathing.
-I need to make it light and slightly humorous. So, maybe something like "You just spilled coffee all over your shirt right before a big meeting, and now you're trying to catch your breath while the clock is ticking. What do you do next?"
-Wait, that's a bit long. Let me make it shorter. Maybe: "You spill coffee on your shirt before a big meeting and suddenly feel like you can't catch your breath. What's your move?"
-Hmm, that's better. It's realistic, short, and captures the feeling of breathlessness due to stress. The user can imagine themselves in that situation and choose how they'd react, which ties back to how they handle stress or anxiety that affects their breathing.
-I think that works. It's engaging, relatable, and maintains the psychological aspect of the original question without using phrases like "how often" or "do you feel."
-&lt;/think&gt;
-You spill coffee on your shirt before a big meeting and suddenly feel like you can't catch your breath. What's your move?</t>
+          <t>You just woke up to the most amazing news – your favorite band announced they're having a secret pop-up concert in your city this afternoon. Your room is cozy, the blankets are warm, but outside, the possibility of live music and maybe even a selfie with your idols is buzzing like a thousand excited bees.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1230,12 +1002,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">DASS-21 (Depression , Anxiety and Stress Scale) </t>
+          <t xml:space="preserve">DASS-21 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1246,18 +1018,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I found it difficult to work up the initiative to do things" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. The response was light, humorous, and relatable.
-First, I should understand the essence of the original question. It's about lacking initiative, which means struggling to start tasks or activities. So, the scenario should capture that feeling of not wanting to begin something even though it's probably important.
-I need to make it realistic and short, just 1-2 sentences. The tone should be light and slightly humorous. Also, I should avoid phrases like "how often" or "do you feel." Instead, describe a situation where the user can imagine themselves and choose how they'd respond.
-Thinking about everyday situations where initiative is needed. Maybe something common like doing chores, responding to messages, or starting work. The example used a meme, which is relatable and funny. Maybe I can use something similar but different.
-Perhaps a situation where the user is supposed to do something important but is procrastinating. Let's say they're sitting on the couch, and their to-do list is staring at them. They could be distracted by something else, like their phone or a show. The scenario should present a choice: either get up and do the task or continue procrastinating.
-I should make it engaging by adding a bit of humor. Maybe exaggerate the situation a bit, like the to-do list being "judgy" or the couch being too comfortable. That way, it's relatable and not too heavy.
-So, putting it together: "You're sitting on the couch, and your to-do list is staring at you like a judgy friend. Your phone is buzzing with texts, but the couch is way too comfy. What do you do?"
-Wait, that's two sentences. It describes the situation, the distraction, and the comfort, then asks the user to choose their action. It captures the struggle to start doing things and the temptation to procrastinate. The tone is light and humorous, using "judgy friend" and "way too comfy" to add relatability.
-I think this fits the guidelines. It's realistic, short, and uses a scenario that lets the user imagine their response. It avoids the prohibited phrases and keeps the psychological essence of lacking initiative.
-&lt;/think&gt;
-You're sitting on the couch, and your to-do list is staring at you like a judgy friend. Your phone is buzzing with texts, but the couch is way too comfy. What do you do?</t>
+          <t>Your friend just called inviting you to an impromptu picnic in the park with live music. The sun is peeking through the curtains, casting warm spots on your cozy bed. You can almost smell the fresh air and hear the faint strains of music drifting on the breeze.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1273,7 +1034,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1284,25 +1045,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I tended to over-react to situations" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their reaction. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, humorous, and sets up a clear situation where the user can imagine their reaction.
-So, for "I tended to over-react to situations," I need a scenario where someone might over-react. Maybe a common situation where emotions can run high, but in a light-hearted way. Perhaps something like a minor inconvenience that someone might blow out of proportion.
-Let me brainstorm some ideas. Maybe something like spilling coffee, missing a bus, or a friend canceling plans. These are relatable and can be exaggerated for humor.
-Let's take spilling coffee. It's a common occurrence and can be frustrating. The scenario could be: "You've just spilled coffee all over your new white shirt right before a big meeting. What do you do?" But I need to make it a bit more engaging and humorous.
-Alternatively, maybe a situation where someone else does something minor, and the user has to decide how to react. For example, a friend forgetting to call, or someone cutting in line. But I want it to be something where over-reacting is a possible response.
-Wait, the example uses a situation where the user is the one experiencing something (reading a meme). Maybe I should have the user as the one causing the situation. Hmm.
-Another idea: "Your partner eats the last slice of pizza you were saving, and now you're faced with a tough decision." This is relatable, a bit humorous, and allows for a range of reactions from calm to over-reacting.
-Alternatively, "You've just realized you've been singing your favorite song loudly in the shower, only to find out your roommate was trying to work from home." This adds a bit of humor and a situation where one might over-react, either by being embarrassed or laughing it off.
-Wait, but the original question is about over-reacting. So the scenario should present a situation where the user's reaction could be exaggerated. Maybe something like a minor setback that someone might over-react to.
-Let me think of a situation where a small issue occurs, and the user has to choose how to respond. For example, "You're at the grocery store, and someone takes the last carton of your favorite ice cream flavor. What do you do?" This is a minor issue but can provoke a reaction.
-Alternatively, "You're trying to watch your favorite show, but the Wi-Fi keeps buffering. What's your move?" This is relatable and can lead to frustration, allowing the user to imagine their reaction.
-I think the pizza scenario is good because it's relatable and has a clear emotional trigger. Let me refine it: "Your partner eats the last slice of pizza you were saving, and now you're faced with a tough decision. What do you do?" It's concise, humorous, and sets up a situation where someone might over-react.
-Alternatively, to make it even more light-hearted: "You've been looking forward to that last slice of pizza all day, and now it's gone—courtesy of your partner. What's your next move?" This adds a bit more humor and sets up the scenario clearly.
-I think this captures the essence of over-reacting because the situation is minor (someone eating the last slice) but can trigger a strong reaction. The user can imagine how they would respond, whether calmly or with frustration.
-So, the final scenario would be: "You've been looking forward to that last slice of pizza all day, and now it's gone—courtesy of your partner. What's your next move?"
-&lt;/think&gt;
-You've been looking forward to that last slice of pizza all day, and now it's gone—courtesy of your partner. What's your next move?</t>
+          <t>You just got a notification that your favorite coffee shop ran out of your go-to drink for the day.  The sky seems to darken a bit as you reread the message.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1318,7 +1061,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1329,14 +1072,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I experienced trembling (e.g., in the hands)" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. The scenario should be light, slightly humorous, and relatable, and it should capture the psychological essence without using phrases like "how often" or "do you feel."
-First, I should think about situations where someone might experience trembling hands. Maybe something common that people can relate to, like trying to open a tight jar or using a vibrating device. Those are everyday situations that can cause physical reactions.
-I want to add a bit of humor to make it engaging. Maybe something like trying to take a selfie and the phone slipping because of shaky hands. That's relatable and a bit funny. It also ties into a modern, everyday activity that many people can visualize.
-So, the scenario could be: "You're trying to take a steady selfie, but your hands are shaking so much the camera slips, and now you have a photo of your ceiling instead of your face. What do you do next?" This captures the trembling and puts it in a light-hearted context. The user can imagine how they'd react in that moment, whether they laugh it off, get frustrated, or something else.
-I think this fits the guidelines because it's realistic, short, and humorous. It avoids the clinical phrasing and instead presents a situation where the user can imagine their response. The scenario still relates to the experience of trembling, just framed in a more engaging way.
-&lt;/think&gt;
-"You're trying to take a steady selfie, but your hands are shaking so much the camera slips, and now you have a photo of your ceiling instead of your face. What do you do next?"</t>
+          <t>You just received that email you've been nervously awaiting all week—think job offer or surprise adventure invite. Your hands start to fidget as you hover over the "open" button.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1352,7 +1088,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1363,24 +1099,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt that I was using a lot of nervous energy" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and ended with a question about the user's next move.
-First, I should understand what "using a lot of nervous energy" means. It's about feeling restless, anxious, or on edge, maybe fidgeting or having trouble relaxing. So, I need a situation where someone is clearly restless or using up a lot of energy nervously.
-I want to make it relatable and slightly funny. Maybe something common that people can imagine themselves in. The example used a meme, which is modern and relatable. I should think of a similar everyday situation.
-Perhaps something like tapping feet, drumming fingers, or pacing. These are physical signs of nervous energy. Let me think of a scenario where someone is doing one of these actions and then ask what they do next.
-I need to keep it short, just 1-2 sentences. Let me try: "You're tapping your foot so fast it might power the entire city, and your fingers are drumming a rhythm that could put a jazz band to shame. What's your next move?" Hmm, that's a bit long. Maybe make it more concise.
-How about: "Your foot is tapping like it's in a race, and your fingers are drumming an invisible piano. What do you do next?" Still, maybe I can make it more vivid.
-Wait, the example used a specific action and a humorous consequence. Maybe something like: "You're jiggling your leg so hard it might launch into orbit, and your hands are tapping out a Morse code message to aliens. What's your next move?" That's a bit too elaborate.
-Let me try to simplify. "You're tapping your foot so fast it could outpace a jackrabbit, and your fingers are drumming a solo on your desk. What's your next move?" Maybe that's better.
-Alternatively, using a common situation like waiting in line or during a meeting. "You're in a meeting, and your pen is tapping out a symphony on your notepad while your leg bounces like a jackhammer. What do you do next?" That's more specific but still relatable.
-I think the key is to capture the restless energy in a humorous way and then prompt the user to choose their response. So, the scenario should end with a question about their next action, allowing them to reflect on how they handle nervous energy.
-Let me try to combine these elements into a concise scenario. Maybe: "You're tapping your foot so fast it might take off, and your fingers are drumming a rhythm on your desk. What's your next move?" That's short, relatable, and ends with a question.
-Alternatively, using a different metaphor: "Your leg is bouncing like a rubber ball, and your hands are tapping out a message in Morse code. What do you do next?" Hmm, maybe that's a bit forced.
-I think the first version I had was better: "You're tapping your foot so fast it might power the entire city, and your fingers are drumming a rhythm that could put a jazz band to shame. What's your next move?" It's vivid and humorous, even if it's a bit long. Maybe I can shorten it slightly without losing the humor.
-How about: "Your foot is tapping like it's in a race, and your fingers are drumming a solo. What's your next move?" That's concise and captures the nervous energy.
-I think that works. It's light, relatable, and ends with a question to engage the user. It also maintains the psychological essence of the original question by illustrating restless behavior.
-&lt;/think&gt;
-Your foot is tapping like it's in a race, and your fingers are drumming a solo. What's your next move?</t>
+          <t>Your best friend just called, inviting you on a spontaneous road trip with plans to hit every quirky roadside attraction along the way. The phone buzzes with excitement, but your room suddenly feels like it's closing in around you.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1396,7 +1115,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1407,16 +1126,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was worried about situations in which I might panic and make a fool of myself" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and made the situation relatable.
-First, I should understand the essence of the original question. It's about anxiety related to social situations where one fears panicking and embarrassing themselves. So, the scenario should capture that feeling of anticipatory anxiety in a social context.
-I need to make it realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation where the user can imagine themselves and choose how they'd respond.
-Thinking about relatable social situations where someone might panic and feel embarrassed. Maybe something like a party, presentation, or meeting new people. Let's go with a party because it's a common scenario where people might feel anxious.
-So, the scenario could involve being at a party and worrying about spilling a drink or tripping. That's a common fear that people can relate to. Using a metaphor like a tightrope walker adds a bit of humor and imagery.
-Putting it together: "You're at a party, and your mind is suddenly convinced you're about to spill your drink, trip over your own feet, or somehow turn into a human version of a viral fail video. What do you do?"
-This captures the anxiety about panicking and making a fool of oneself in a social setting. It's relatable, uses humor, and is concise. The user can imagine themselves in that moment and think about how they would react, which aligns with the app's goal of assessing their response tendencies.
-&lt;/think&gt;
-You're at a party, and your mind is suddenly convinced you're about to spill your drink, trip over your own feet, or somehow turn into a human version of a viral fail video. What do you do?</t>
+          <t>You're backstage at a local open mic night, the mic stand gleaming under the hot lights. Your name is up next, and the crowd buzzes with anticipation. Suddenly, a wave of butterflies transforms into full-blown panic just thinking about stepping out there.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1432,7 +1142,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1443,18 +1153,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt that I had nothing to look forward to" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and ended with a question about the user's next move.
-First, I should understand the essence of the original question. It's about feeling a lack of anticipation or excitement about the future. So, the scenario should capture that feeling of emptiness or hopelessness about upcoming events.
-I need to make it relatable and realistic. Maybe something that happens on a weekend or a day off, which is typically a time people look forward to. The example used a situation where the user is on their couch, which is a common setting.
-I should add a humorous twist. Maybe something about scrolling through a calendar and finding nothing exciting. The example used a parallel universe metaphor, so perhaps I can use something similar but different, like a desert metaphor to symbolize emptiness.
-I should end with a question that prompts the user to choose their response, which will be scaled. The example ended with "What's your next move?" which is good because it's open-ended and encourages the user to think about their reaction.
-Putting it all together, I can imagine a scenario where the user is on their couch, looking at their calendar, and it's as empty as a desert. Then, they're given options on how they'd react, which ties into the scale of how strongly they feel that way.
-I should make sure the language is light and slightly humorous, avoiding any heavy or clinical terms. The scenario should be short, just a couple of sentences, and set up a situation where the user can imagine themselves and choose a response.
-So, the scenario could be: "You're sitting on your couch, scrolling through your calendar, and it's as empty as a desert landscape—no plans, no events, just endless nothingness. What do you do next?"
-This captures the feeling of having nothing to look forward to, uses a relatable setting, adds a humorous metaphor, and ends with a question that prompts the user to think about their response.
-&lt;/think&gt;
-You're sitting on your couch, scrolling through your calendar, and it's as empty as a desert landscape—no plans, no events, just endless nothingness. What do you do next?</t>
+          <t>Your weekend alarm goes off, and the day stretches ahead like an endless, blank page. The sun is peeking through the curtains, but your calendar is still stubbornly free of any plans or exciting events.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1470,7 +1169,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1481,15 +1180,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I found myself getting agitated" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario needs to be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I should think about situations where someone might feel agitated. Common scenarios could be dealing with technology issues, like a slow computer or a frozen app. People often get frustrated when their devices aren't working as expected, especially when they're in a hurry or under pressure.
-Next, I need to add a humorous twist. Maybe the computer is acting up in a way that's relatable but a bit exaggerated. For example, the computer freezing right before an important task, like a work deadline or a video call. The frustration of the computer not responding can be compared to something funny, like a sloth moving slowly.
-I should make sure the scenario is short and to the point. It should immediately put the user in the situation and prompt them to think about their reaction. The response should allow the user to choose how they'd react, which will be mapped to a scale.
-Putting it all together, I can create a scenario where the user is trying to meet a deadline, and their computer freezes. The comparison to a sloth adds humor and relatability. The question then asks what they'd do next, prompting them to imagine their response.
-I think this approach captures the feeling of agitation in a light-hearted way and fits the guidelines provided. It's realistic, short, and engaging, making it suitable for the mental wellness app's assessment.
-&lt;/think&gt;
-Your computer freezes right as you're about to hit send on a crucial work email, and the loading wheel is moving slower than a sloth on a Sunday stroll. What do you do next?</t>
+          <t>Your perfectly brewed coffee is calling your name, but the pile of unopened bills on your desk is starting to twitch like a caffeinated squirrel.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1505,7 +1196,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1516,22 +1207,8 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I found it difficult to relax" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their next move. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I found it difficult to relax," I need a similar approach. Maybe a common situation where someone is trying to unwind but can't. Think of activities people do to relax—like taking a bath, reading a book, watching TV, or meditating. But their mind keeps racing.
-Let me brainstorm some ideas. Maybe someone is trying to watch their favorite show, but their mind is elsewhere. Or they're in a cozy environment but can't settle. Maybe something like, "You're snuggled up with a cozy blanket and a cup of tea, but your brain is still running a mental marathon. What do you do next?"
-Wait, that's similar to the example. Let me think of another angle. Maybe something more active, like trying to meditate but getting distracted. Or perhaps they're in a peaceful setting but can't calm down.
-Alternatively, think of a situation where they're supposed to be relaxing but can't because their thoughts are intrusive. Maybe something like, "You're lying in bed, ready to sleep, but your mind is wide awake, planning tomorrow's tasks. What do you do?"
-Hmm, that's a bit too specific. Maybe a more general scenario. How about, "You've just finished a long day and are trying to unwind, but your thoughts are still racing. What's your next move?"
-That's good, but maybe add a bit of humor. Let's see. "You've poured yourself a glass of wine and put on your favorite playlist, but your brain is still in work mode. What do you do?"
-That's better. It adds elements of relaxation (wine, music) but the brain isn't cooperating. It's relatable and has a light tone.
-Alternatively, "You're trying to enjoy a quiet evening at home, but your mind keeps jumping from one worry to the next. What's your move?"
-That's also good. It captures the difficulty in relaxing due to racing thoughts.
-I think the key is to present a common relaxation scenario where the mind isn't cooperating, prompting the user to think about how they'd handle it. The response should be something that can be scaled, like how strongly they feel or how they'd react.
-So, to sum up, the scenario should be a relatable situation where relaxation is attempted but difficult, with a humorous twist to keep it light.
-&lt;/think&gt;
-You've poured yourself a glass of wine and put on your favorite playlist, but your brain is still in work mode. What do you do?</t>
+          <t>You just got home after a long day, and the couch is calling your name louder than a late-night infomercial. A warm blanket and your favorite show are waiting, but your friend just messaged about an impromptu hike with breathtaking views.  
+[Slider: 0 (staying firmly on the couch) to 4/5 (grabbing your gear, ready to conquer the trail)]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1547,7 +1224,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1558,14 +1235,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt down-hearted and blue" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I felt down-hearted and blue," I need a scenario that conveys feeling down. Maybe something common that people can relate to, like a rainy day or a cozy situation where someone might feel low. Adding a bit of humor or a twist to make it engaging.
-Perhaps something like: "It's a cozy Sunday morning, but you're feeling as flat as the soda you left out overnight. What do you do?" This uses a relatable situation (Sunday morning), a humorous simile (flat soda), and invites the user to think about their response.
-Alternatively, maybe involving a pet or a common activity. But the example I came up with seems to fit the guidelines. It's short, uses a light tone, and captures the feeling of being down-hearted without being too heavy.
-&lt;/think&gt;
-It's a cozy Sunday morning, but you're feeling as flat as the soda you left out overnight. What do you do?</t>
+          <t>You just opened the curtains to a sunlit, perfectly breezy Saturday morning, and right outside is a community park hosting a spontaneous outdoor art festival with live music and colorful installations. Inside, you're wrapped in your favorite cozy blanket, feeling a bit like a cloud weighed you down overnight.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1581,7 +1251,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1592,17 +1262,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was intolerant of anything that kept me from getting on with what I was doing" into a fun, engaging real-life scenario. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they'd respond. The scenario should still capture the psychological essence of the original question, which is about intolerance towards interruptions or delays.
-Looking at the example provided, the clinical question was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. The response was about what the user would do next, which ties into how they handle distractions or lack of focus.
-So, for the given question, I need to think of a situation where something is interrupting the user's task, and they have to choose how to react. The key is to make it relatable and a bit funny. Maybe something common like a pet or a roommate interrupting. Let's see.
-I could think of a scenario where the user is in the middle of something important, like cooking or working, and something or someone interrupts them. The interruption should be something that would test their patience. For example, a cat jumping onto the keyboard or a roommate asking a trivial question.
-Let me try to craft a sentence. Maybe something like: "You're in the middle of a critical work task when your cat decides it's the perfect time to practice its piano skills on your keyboard. What do you do?" That's light, relatable, and presents a clear interruption. The user can then choose their response based on their level of intolerance.
-Wait, but the example used a slightly different structure, ending with "What's your next move?" Maybe I should follow that structure for consistency. So, perhaps: "You're right in the zone, crushing your to-do list, when your roommate bursts in to ask if the sky is actually blue. What's your next move?" That's a bit more humorous and relatable, as people often get distracted by others.
-Alternatively, using a pet example might be more universally relatable, as many people have pets. So, "You're trying to meet a tight deadline when your cat decides your keyboard is the perfect napping spot. What's your next move?" That's concise, relatable, and presents a clear interruption.
-I think the pet scenario is better because it's a common situation and adds a bit of humor with the cat's action. It clearly shows an interruption that could test someone's patience, which ties back to the original question about intolerance towards delays or interruptions.
-&lt;/think&gt;
-You're trying to meet a tight deadline when your cat decides your keyboard is the perfect napping spot. What's your next move?</t>
+          <t>You're mid-flow crafting the perfect sourdough loaf, and suddenly, your roommate bursts in, animated about their day. They start chatting enthusiastically, but your dough is timing-sensitive!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1618,7 +1278,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1629,34 +1289,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt I was close to panic" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, turning it into a relatable and slightly humorous situation. 
-First, I should understand the essence of the original question. It's about feeling on the verge of panic. I need to create a scenario where the user imagines themselves in a situation that might trigger that feeling. 
-I want the scenario to be light and humorous but still realistic. Maybe something everyday that people can relate to. Let me think about common situations where someone might feel close to panic. Maybe something like a busy place, a deadline, or an unexpected event.
-The example used a meme caption, which is modern and relatable. I should use something similar. Maybe a situation involving technology or everyday tasks. 
-Wait, the user is imagining themselves in the moment, so the scenario should be vivid. Let me think of a situation where someone might feel overwhelmed. How about a coffee shop? It's a common place where people go, and it can get busy and noisy. 
-So, imagine being in a bustling coffee shop. The environment is chaotic—loud noises, people rushing. The user is trying to order but feels overwhelmed. That could lead to feeling close to panic. 
-I need to make it slightly humorous. Maybe exaggerate the situation a bit. Like, the barista is staring expectantly, and the user feels the pressure. 
-Putting it together: "You're standing in a bustling coffee shop, and the barista is staring at you expectantly while the person behind you is audibly sighing. You're trying to remember if you wanted room for cream or not, but your brain is suddenly a blank slate. What do you do?"
-Wait, does that capture the feeling of being close to panic? Maybe not entirely. It's more about feeling pressured or anxious in a social situation. I need to tweak it to better reflect the panic aspect.
-Perhaps a situation where the user is in a more personal, solitary moment. Like when they're alone and something triggers the panic. Maybe something like receiving an unexpected message or notification that causes stress.
-Alternatively, think of a situation where the user is in a confined or stressful environment. Maybe public speaking or a sudden loud noise. 
-Wait, the example used a meme, which is a solitary activity. Maybe I can create a similar scenario. How about being in a situation where the user is trying to relax but something interrupts them, causing panic.
-Alternatively, think of a common stressful situation like missing a call from an important person. 
-Wait, let me try again. The scenario should be short, 1-2 sentences, and capture the feeling of being close to panic. 
-How about: "You're trying to relax on a Sunday evening when suddenly your phone buzzes with an urgent work email. Your heart starts racing as you wonder what it could be. What do you do?"
-Hmm, that's a bit too direct. Maybe make it more relatable and humorous. 
-Alternatively: "You're in the middle of a peaceful walk when a stray dog starts barking loudly behind you. Your heart skips a beat. What's your next move?"
-No, that's more about a startle response than feeling close to panic. 
-Wait, maybe a situation where the user is overwhelmed with tasks. Like having too many things to do at once. 
-"You're sitting at your desk with a mountain of tasks in front of you, and your mind is going a mile a minute. What do you do?"
-That's better. It captures the feeling of being overwhelmed, which can lead to panic. 
-But I need to make it more engaging and slightly humorous. Maybe add a relatable element, like a favorite snack or something. 
-"Your to-do list is longer than your favorite Netflix show's episode list, and your mind is racing faster than a caffeine high. What's your move?"
-That's more engaging and humorous. It uses a relatable comparison (Netflix episodes) and a common stimulant (caffeine) to illustrate the racing mind. 
-I think this captures the essence of feeling close to panic due to overwhelm. The user can imagine themselves in this situation and choose how they'd respond, which aligns with the app's purpose of assessing their reaction.
-&lt;/think&gt;
-Your to-do list is longer than your favorite Netflix show's episode list, and your mind is racing faster than a caffeine high. What's your move?</t>
+          <t>You just got a surprise notification: your favorite band announced an impromptu concert tonight in town. Your heart races, but your feet feel glued to the floor. The clock ticks louder with each passing second.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1672,7 +1305,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1683,15 +1316,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was unable to become enthusiastic about anything" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It's light, humorous, and relatable.
-First, I should understand the essence of the original question. It's about lacking enthusiasm, feeling unmotivated, or disconnected from things that usually bring excitement. The scenario should capture that feeling without being too heavy.
-I need to create a situation where the user imagines themselves in a moment where they're supposed to feel enthusiastic but can't. It should be realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous to keep it engaging.
-Thinking about relatable situations where enthusiasm is expected. Maybe something like planning a fun event or activity. For example, planning a party or a night out with friends. If someone can't get excited about it, that's a good indicator.
-So, the scenario could involve a friend inviting them to something fun, but they just don't feel like it. Maybe they're trying to come up with ideas but nothing seems appealing. Using emojis could add a playful touch.
-Putting it together: "Your friend texts you about planning an epic night out, but as you stare at your phone, even the idea of pizza and a movie feels meh. What do you do?" This captures the lack of enthusiasm and presents a choice, fitting the response scale.
-&lt;/think&gt;
-Your friend texts you about planning an epic night out, but as you stare at your phone, even the idea of pizza and a movie feels meh. What do you do? 🍕🍿</t>
+          <t>Your favorite band just announced a surprise concert tickets going live at midnight. You’re lying on the couch, scrolling through memes. The clock ticks closer to showtime...</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1707,7 +1332,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1718,16 +1343,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt I wasn’t worth much as a person" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It's light, humorous, and relatable.
-First, I should understand the essence of the original question. It's about feeling a lack of self-worth. So, the scenario should capture that feeling without being too heavy. It needs to be something people can imagine themselves in and choose how they'd respond.
-I want to make it relatable, so maybe a common situation where someone might feel that way. Maybe something involving social media since that's a common place where people compare themselves. For example, scrolling through social media and seeing others' highlights.
-I should add a bit of humor to keep it light. Maybe exaggerate the situation a bit, like seeing someone post about an achievement and then another, making the user feel like they're not doing enough. Then, the user's reaction is what we're measuring.
-I need to avoid phrases like "how often" or "do you feel." Instead, describe the situation and let the user imagine their response. The scenario should end with a question that prompts the user to think about their next move, which will correspond to a scale response.
-Putting it all together, the scenario could be: "You're scrolling through social media and see someone posting about their promotion, another sharing their vacation pics, and a third bragging about their 5am workout. Suddenly, your Saturday morning in PJs doesn't feel quite as impressive. What do you do next?"
-This captures the feeling of low self-worth by comparing oneself to others on social media, which is a common and relatable situation. The humor comes from the exaggerated examples and the contrast of the user's Saturday morning. The question at the end invites the user to think about their reaction, which can be scaled based on their response.
-&lt;/think&gt;
-You're scrolling through social media and see someone posting about their promotion, another sharing their vacation pics, and a third bragging about their 5am workout. Suddenly, your Saturday morning in PJs doesn't feel quite as impressive. What do you do next?</t>
+          <t>You just received a surprise invitation to showcase your photography at a local gallery, something you’ve always dreamed of. Sunlight streams through your window, but your alarm clock mocks you from across the room.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1743,7 +1359,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1754,16 +1370,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt that I was rather touchy" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their reaction. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand what "I felt that I was rather touchy" means. It's about feeling overly sensitive or emotionally reactive, maybe prone to taking things personally or getting upset easily.
-I should think of a common, relatable situation where someone might feel touchy. Maybe something at work or with friends. Let's see, a meeting where someone gives feedback. That's a good setting because feedback can sometimes be perceived as criticism, which might make someone feel touchy.
-Now, making it humorous. Maybe the feedback is about something trivial, like a typo or a minor mistake, but the person takes it more seriously because they're feeling sensitive. Using a typo is relatable because everyone makes typos, and it's a minor thing that can be blown out of proportion when someone is feeling touchy.
-So, the scenario could be: "You're in a meeting and someone points out a tiny typo in your report. What's your next move?" This captures the feeling of being touchy because the typo, while minor, might trigger a stronger emotional response.
-I think this works because it's a common situation, it's light, and it allows the user to imagine how they would react. The humor comes from the situation being about a typo, which is not a big deal, but the emotional response might be exaggerated because of feeling touchy.
-I should make sure it's concise and fits the guidelines. Let me check: it's realistic, short, avoids the forbidden phrases, and maintains the psychological aspect. Yes, I think this scenario fits well.
-&lt;/think&gt;
-You're in a meeting and someone points out a tiny typo in your report. What's your next move?</t>
+          <t>You just found out your favorite café ran out of your go-to specialty drink. A line of disappointed sighs seems to follow the barista's announcement.  You glance at your empty hands.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1779,7 +1386,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1790,16 +1397,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was aware of the action of my heart in the absence of physical exertion (e.g., sense of heart rate increase, heart missing a beat)" into a fun, engaging real-life scenario. The user wants the scenario to be light, slightly humorous, and relatable, without using phrases like "how often" or "do you feel." It should be short, 1-2 sentences, and capture the psychological essence of the original question.
-First, I should think about situations where someone might notice their heartbeat without being physically active. Maybe sitting quietly, relaxing, or in a calm environment. The example given was about reading a meme, so maybe something similar but different.
-I need to make it relatable. Perhaps something like sitting in a quiet room, maybe during a relaxing activity. The scenario should make the user imagine themselves in that moment and choose how they'd respond. The response should be on a scale, so the scenario needs to allow for different reactions.
-Let me brainstorm some ideas. Maybe sitting in a quiet room, noticing the heartbeat. Or perhaps during a moment of focus, like meditating or reading. The example used a meme, so maybe something like that but different. Maybe something like sitting in a quiet room, and suddenly noticing the heartbeat, and then what do they do next.
-I should make it light and slightly humorous. Maybe exaggerate the situation a bit, like the heartbeat being so loud it's like a drum solo. That adds humor and makes it relatable.
-Putting it together: "You're sitting in a quiet room, and suddenly your heartbeat is so loud it could be mistaken for a drum solo. What do you do next?" This captures the awareness of the heartbeat without physical exertion, uses a humorous analogy, and is short and relatable.
-I think that fits the guidelines. It's a realistic situation, uses humor, and allows the user to imagine their response. It also avoids the prohibited phrases and keeps the psychological aspect intact.
-&lt;/think&gt;
-You're sitting in a quiet room, and suddenly your heartbeat is so loud it could be mistaken for a drum solo. What do you do next?</t>
+          <t>You're chilling on the couch, scrolling through memes when suddenly, a cute notification pops up from an old friend inviting you to a spontaneous picnic in the park. Your heart skips a beat—or maybe it's just the excitement making it feel that way.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1815,7 +1413,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1826,28 +1424,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt scared without any good reason" into a fun, engaging real-life scenario for a mental wellness app. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they'd respond. The scenario should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about feeling scared without a clear reason. So, the scenario should evoke that feeling of fear or anxiety without an obvious cause. It should be something that people can relate to and find a bit humorous to make it engaging.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture. I need to do something similar.
-I should think of everyday situations where someone might feel scared or anxious without a specific reason. Maybe something common like being home alone, hearing a strange noise, or something unexpected happening. These situations can trigger fear naturally.
-Let me brainstorm some ideas. Maybe something like being alone at night and hearing a strange noise. That's a classic scenario that many people can relate to. It's also a situation where the fear isn't based on a real, immediate danger, which fits the "without any good reason" part.
-Now, how to make it humorous and light. Maybe exaggerate the situation a bit. Instead of just a noise, perhaps something more unexpected, like a sudden movement or an unexplained event. Adding a bit of humor can make it less intimidating and more engaging.
-I also need to keep it short. So, perhaps something like: "You're home alone when you hear a strange creaking sound coming from downstairs. What do you do?" But I can make it a bit more vivid and humorous. Maybe add something about the imagination running wild, like thinking it's a monster or something.
-Wait, the example used a meme, which is modern and relatable. Maybe I can use something similar but fit the scenario. Alternatively, think of a situation that's common but can be twisted with a bit of humor.
-Another angle: using a relatable activity that suddenly takes a twist. For example, while doing something mundane, like taking a shower, and then something unexpected happens that causes fear.
-Wait, the example used reading a meme, which is a casual activity. Maybe I can use a similar approach. How about when you're in a relaxed state, like watching TV, and then something startles you without a reason.
-Alternatively, think of a situation where the environment changes unexpectedly, causing fear. Like the lights flickering or a sudden noise.
-I think the home alone scenario is strong because it's relatable and can easily incorporate humor. Let me try to craft that.
-"You're home alone, and as you're scrolling through memes, you hear a strange creaking sound coming from downstairs. What's your next move?" Hmm, that's a bit long. Maybe make it more concise.
-Alternatively: "You're home alone when you hear a mysterious thud downstairs. What do you do?" But I want to add a bit of humor. Maybe something like, "You're home alone, and the house decides to play hide and seek with your sanity. What's your move?"
-Wait, that's a bit abstract. Maybe better to keep it grounded but with a humorous twist. "You're home alone, and the house makes a weird noise that sounds suspiciously like a monster. What do you do?"
-That's better. It's relatable, adds a humorous element by suggesting a monster, which is a common fear, and keeps it short.
-Alternatively, "You're chilling at home when a random loud bang startles you, and suddenly your imagination is running wild. What's your next move?" This also works, but maybe the first version is more concise.
-I think the key is to create a scenario that's relatable, slightly humorous, and captures the feeling of fear without a clear reason. The home alone with a strange noise fits well. Adding the monster element makes it a bit more engaging and light.
-So, the final scenario could be: "You're home alone when you hear a mysterious thud downstairs that sounds like a monster. What do you do?" It's short, relatable, has a humorous twist, and captures the essence of feeling scared without a good reason.
-&lt;/think&gt;
-You're home alone when you hear a mysterious thud downstairs that sounds like a monster. What do you do?</t>
+          <t>You just heard a sudden loud noise downstairs, and your heart races even though logically, it's probably just the cat knocking something over. The covers feel like a warm, comforting fortress.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1863,7 +1440,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1874,15 +1451,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt that life was meaningless" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. The tone should be light, slightly humorous, and relatable. The situation needs to be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their response. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about feeling that life lacks meaning. So, the scenario should evoke that feeling in a relatable way. Maybe a common situation where someone might feel that way, like a routine task or a moment of reflection.
-I should think of a situation that's everyday but can lead to that feeling. Maybe something like doing laundry, which is routine and can feel monotonous. Folding socks is a relatable task that might make someone think about the bigger picture.
-Now, adding a humorous twist. Maybe the socks have gone missing, which is a common frustration and can lead to a moment of existential thought. So, the scenario could involve matching socks and wondering about life's meaning.
-Putting it together: "You're folding laundry and realize you've spent 20 minutes searching for matching socks, only to wonder if this is all there is to life. What do you do next?"
-This scenario is short, relatable, and has a light, humorous tone. It captures the feeling of questioning life's meaning in a mundane moment. The user can imagine their response, which fits the scale for how strongly they feel that way.
-&lt;/think&gt;
-You're folding laundry and realize you've spent 20 minutes searching for matching socks, only to wonder if this is all there is to life. What do you do next?</t>
+          <t>Your favorite coffee mug fell to the floor this morning, chipped beyond repair.  You sigh, looking around your cluttered living room, debating whether to tackle the mess or crawl back under the blankets.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1898,7 +1467,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0-Not at all, 1-Several Days , 2-More than half days, 3-Nearly Every Day</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1909,28 +1478,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Any reminder brought back feelings about it," into a fun and engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario needs to be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their reaction. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about whether reminders bring back feelings. So, the scenario should involve a reminder triggering some emotions. I want to make it relatable, so maybe something common like hearing a song or seeing something that reminds them of an event or person.
-The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered. It's light and funny. So, I should aim for something similar.
-Let me brainstorm some ideas. Maybe something like receiving an old photo, hearing a song, or encountering a smell that reminds them of something. These are common triggers.
-I think a song is a good choice because it's universal and often tied to memories. So, the scenario could be about hearing a song that reminds them of a past event or person. Then, the user has to choose how they react.
-I need to make it humorous. Maybe add a funny detail, like the song being from a past relationship or a memorable event. The reaction options could be on a scale, like how strongly they feel or how they'd handle it.
-Putting it together: "You're at the grocery store when a song starts playing that reminds you of your ex. What do you do?" But I need to make it a bit more engaging and humorous. Maybe add something about the situation being awkward or funny.
-Wait, the example used a meme, which is modern and relatable. Maybe I can tie it into something like that. Or perhaps use a situation where the reminder is unexpected and catches them off guard.
-Another angle: using a specific object or place as the reminder. For example, seeing an old coffee mug that reminds them of a past time. But a song in the grocery store seems more dynamic.
-I think the grocery store scenario is good. It's a common place, and hearing a song there is relatable. Now, to add humor, maybe mention something about the song being from a past breakup or a cringe-worthy memory.
-So, the scenario could be: "You're cruising through the grocery store when 'I Will Always Love You' starts blasting, and suddenly you're transported back to your middle school breakup. What's your move?"
-This captures the essence of a reminder bringing back feelings, uses a relatable situation, adds humor with the dramatic song and middle school reference, and is concise.
-I think that works. It's light, slightly humorous, and realistic. The user can imagine themselves in that moment and choose their response based on how they'd react emotionally.
-&lt;/think&gt;
-You're cruising through the grocery store when 'I Will Always Love You' starts blasting, and suddenly you're transported back to your middle school breakup. What's your move?</t>
+          <t>You just spotted a flyer for your old favorite band coming to town, the one that got you through your toughest times.  
+[Slider: 0 (stare at it, lost in memories) to 4/5 (rip it down, start planning concert outfits)]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Any reminder brought back feelings about it,</t>
+          <t>Any reminder brought back feelings about it</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1940,7 +1495,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1951,16 +1506,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I had trouble staying asleep" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I had trouble staying asleep," I need a similar approach. Maybe something involving waking up in the middle of the night and struggling to fall back asleep. I can add a humorous twist, like a pet or something else causing a disturbance. The scenario should make the user think about what they would do next.
-Let me brainstorm some ideas. Maybe the user wakes up to a noise, like a pet making noise, or perhaps their mind starts racing. I want it to be something people can relate to and find a bit funny.
-How about: "You wake up at 3 AM to the sound of your cat plotting world domination and now you're wide awake. What do you do?" It's relatable because many people have pets that can be noisy at night, and the idea of the cat plotting world domination adds a humorous twist. It also captures the essence of having trouble staying asleep because of an interruption.
-Alternatively, I could think of a scenario where the user's mind starts racing, but I think the cat example is more engaging and fun. It also allows the user to imagine their response, whether they try to go back to sleep, get up, or interact with the cat.
-I think this scenario fits the guidelines well. It's light, humorous, and realistic. It avoids the clinical phrasing and instead presents a situation that users can easily visualize and respond to.
-&lt;/think&gt;
-You wake up at 3 AM to the sound of your cat plotting world domination and now you're wide awake. What do you do?</t>
+          <t>Your clock radio clicks on with the morning news, and the sun peeks through the curtains, casting a warm glow that somehow feels more like interrogation lights. You can either burrow deeper into your cozy blankets or leap out of bed ready to tackle the day like a caffeinated superhero.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1976,7 +1522,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1987,16 +1533,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Other things kept making me think about it" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. 
-First, I should understand the essence of the original question. It's about intrusive thoughts where other things trigger thoughts about something else, making it hard to let go. So, the scenario should capture that feeling of being reminded constantly.
-I need to make it light and humorous, relatable. Maybe something everyday that people can imagine themselves in. The example used a meme, which is modern and relatable. I should think of a similar situation.
-Perhaps something like being at a party or a casual gathering. Let's say someone mentions a word or a phrase that reminds the user of something they're trying not to think about. That way, it's a real-life situation where the user is trying to have fun but gets reminded.
-I should keep it short, 1-2 sentences. The scenario should end with a question about what the user would do next, allowing them to choose their response. The response options will be on a scale, so the scenario needs to set up a moment where different reactions are possible.
-Let me try drafting it: "You're at a party, laughing with friends, when someone mentions a word that instantly brings up *that thing* you've been trying not to think about all day. What do you do?"
-Hmm, that's good. It's relatable, sets up the situation, and allows the user to imagine their reaction. It captures the psychological aspect of intrusive thoughts without being too heavy.
-&lt;/think&gt;
-You're at a party, laughing with friends, when someone mentions a word that instantly brings up *that thing* you've been trying not to think about all day. What do you do?</t>
+          <t>You just received a surprise text from an old friend inviting you to an impromptu picnic in the park. Sunlight streams through your blinds as you mull over the message, with errands and chores looming in the background.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2012,7 +1549,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2023,21 +1560,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt irritable and angry" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and puts the user in a situation where they can imagine their reaction.
-So, for "I felt irritable and angry," I need a scenario that embodies irritation and anger in a common, everyday situation. Maybe something that happens frequently and can cause frustration. Let me think of situations where people commonly feel irritable or angry.
-One common situation is when someone is trying to relax, maybe watching TV or a movie, and something annoying happens. Like the Wi-Fi goes out, or the streaming service buffers. That can be frustrating. Alternatively, someone cutting in line, or a noisy neighbor, but those might be too specific or require more setup.
-Another idea is being stuck in traffic, but that's a bit cliché. Maybe something more personal, like a pet or a roommate doing something annoying. For example, a cat jumping on the keyboard while working, or a roommate eating your food. These are relatable and can cause irritation.
-Wait, the example uses a situation where the brain wanders off, which is more about concentration. So for irritation and anger, I need something that triggers that emotion. Maybe a situation where something unexpected and frustrating happens, interrupting a peaceful moment.
-Let me think of a scenario: You're trying to enjoy a quiet evening at home, maybe reading a book or watching your favorite show, and suddenly there's a loud noise, like a neighbor blasting music or someone else being loud. That can be irritating. Alternatively, your phone dies when you need it, or you spill something on your clothes.
-Wait, the example uses a meme, which is light-hearted. Maybe I can find a balance between something annoying but not too severe. Like a pet or roommate doing something that's both a bit funny and frustrating.
-So, perhaps: "You're trying to enjoy a peaceful Sunday morning, but your roommate decides it's the perfect time to practice their drum solo. What do you do?" That's relatable, a bit humorous, and puts the user in a situation where they can imagine feeling irritable or angry.
-Alternatively, using a pet: "You're in the middle of an important work call when your cat decides to meow loudly and jump on your desk. How do you handle it?" But maybe the drum example is better because it's a clearer trigger for irritation.
-Wait, the example uses a situation where the user is reading a meme, which is a solo activity. Maybe the scenario should involve an external annoyance. So, the drum example fits well because it's an external noise causing frustration.
-I think that's a good scenario. It's short, relatable, and allows the user to imagine their response on a scale of how they'd react, capturing the essence of feeling irritable or angry.
-&lt;/think&gt;
-You're trying to enjoy a peaceful Sunday morning, but your roommate decides it's the perfect time to practice their drum solo. What do you do?</t>
+          <t>Your morning coffee machine decides today is the perfect day to act up, spewing out lukewarm, weak brew instead of the usual energizing elixir. The kitchen clock ticks loudly, mocking your growing frustration as you stare at the malfunctioning appliance.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2053,7 +1576,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2064,19 +1587,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I avoided letting myself get upset when I thought about it or was reminded of it" into a fun, engaging real-life scenario. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they'd respond. The scenario should still capture the psychological essence of the original question, which is about avoiding feelings of upset when reminded of something.
-Looking at the example provided, the clinical question was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It's relatable, a bit funny, and sets up a choice for the user.
-So, for the given question, I need to think of a situation where someone is reminded of something that could upset them, but they avoid letting themselves get upset. Maybe a common situation where reminders pop up, like social media, and the person has to decide how to handle it.
-I should make it light and humorous. Maybe something like seeing an ex's post on social media. That's a relatable situation where someone might feel the urge to get upset but chooses not to. The scenario should present the moment and the user's potential actions.
-Let me try to draft it: "You're scrolling through social media when you come across your ex's post, and suddenly your thumb hovers over the 'react' button. What do you do next?" Hmm, that's okay, but maybe it can be more engaging. Perhaps adding a bit more humor or a specific action they might take to avoid getting upset.
-Wait, the example used a meme, which is casual and funny. Maybe I can use something similar. How about something like, "You're at a coffee shop when a song that reminds you of your ex starts playing. Do you..." That's a bit more specific and relatable.
-Alternatively, using a situation where the reminder is unexpected, like a song or a place. Let me think of a scenario that's short, engaging, and allows the user to imagine their response.
-Maybe: "You're having a great day when a song comes on that reminds you of something you'd rather forget. What's your move?" That's concise and sets up a choice. It's light and relatable, and the user can imagine themselves in that moment deciding how to react.
-I think that captures the essence of avoiding getting upset when reminded of something. It's a common situation, and the response options can vary from changing the song, letting it play, or something else, which ties into how strongly they avoid the upset.
-So, the final scenario would be: "You're having a great day when a song comes on that reminds you of something you'd rather forget. What's your move?"
-&lt;/think&gt;
-You're having a great day when a song comes on that reminds you of something you'd rather forget. What's your move?</t>
+          <t>You just got an email notification about that upcoming project deadline you’ve been kinda dreading. As you see the subject line flash across your screen, you consider whether to dive into the task or reach for the nearest distraction.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2092,7 +1603,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2103,16 +1614,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I thought about it when I didn't mean to" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. 
-First, I should understand the original question. It's about intrusive thoughts, where someone thinks about something they didn't intend to. The goal is to create a relatable, slightly humorous situation that captures this essence without using phrases like "how often" or "do you feel."
-I need to make it realistic and short, maybe 1-2 sentences. The scenario should let the user imagine themselves in the moment and choose how they'd respond. The response should be on a scale, so the scenario needs to allow for different reactions.
-Thinking about everyday situations where intrusive thoughts might occur. Maybe something common like being in a meeting, watching TV, or doing chores. The example used a meme, which is relatable and light. I should find something similar.
-Perhaps something like being in the middle of an activity and suddenly having an unwanted thought pop up. For example, while cooking, driving, or during a workout. Let's go with cooking because it's a common activity and can be made humorous.
-So, the user is in the kitchen, trying to focus on cooking, but their mind drifts to something else. Maybe something unexpected, like planning a vacation while they're supposed to be making dinner. That's relatable and a bit funny because it's an odd juxtaposition.
-Putting it together: "You're mid-sauté, trying to perfect your signature dish, when suddenly you're mentally planning a tropical vacation instead of seasoning the veggies. What do you do next?" This captures the intrusive thought in a light-hearted way and allows the user to imagine their response.
-&lt;/think&gt;
-You're mid-sauté, trying to perfect your signature dish, when suddenly you're mentally planning a tropical vacation instead of seasoning the veggies. What do you do next?</t>
+          <t>You’re halfway through a thrilling mystery novel, the kind where every page turn reveals a new clue, and suddenly your fridge timer dings, signaling dinner is ready. The book’s cliffhanger is killing you, but dinner could be tempting too.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2128,7 +1630,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2139,23 +1641,8 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt as if it hadn't happened or wasn't real" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about feeling like something didn't happen or isn't real. This relates to dissociation or feeling detached from reality. So, the scenario should reflect that feeling.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-I need to create a similar situation. Maybe something common that people can relate to, where they might feel detached or unsure if something happened. Let's think of everyday situations where someone might question reality or feel like something didn't happen.
-Perhaps something like receiving unexpected news or an unusual event. For example, finding something strange at home. Let's say, coming home to find something out of place, like the furniture rearranged. That could make someone question if it really happened or if it's just their imagination.
-So, the scenario could be: "You walk into your living room and notice the furniture is rearranged. Did you actually move things around last night, or is your brain playing tricks on you? What do you do?"
-Wait, that's two sentences. Let me check the guidelines. It should be 1-2 sentences, so that's fine. It's realistic, relatable, and has a touch of humor with the idea of the brain playing tricks. It captures the feeling of doubting reality without being too heavy.
-Alternatively, maybe something like receiving an unexpected message or a strange phone call. But the furniture scenario feels more visual and easier to imagine.
-Another idea: "You find a note on your kitchen counter that says 'You're welcome!' but you have no idea who wrote it or what it's for. What's your next move?" This also creates a sense of uncertainty and questioning reality.
-But the furniture scenario might be more universally relatable. Let me go with that.
-So, the scenario is: "You walk into your living room and notice the furniture is rearranged. Did you actually move things around last night, or is your brain playing tricks on you? What do you do?"
-Wait, the example provided by the user was: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's concise and ends with a question.
-I think my scenario is good. It's realistic, has a bit of humor, and makes the user imagine themselves in that situation, prompting them to think about how they'd react. It captures the essence of feeling detached or unsure about reality without being clinical.
-I should make sure it's only the scenario and nothing else, as per the user's instruction. So, I'll present it clearly without any additional explanation.
-&lt;/think&gt;
-You walk into your living room and notice the furniture is rearranged. Did you actually move things around last night, or is your brain playing tricks on you? What do you do?</t>
+          <t>You just woke up to discover your friend accidentally sent you a video of them winning that spontaneous karaoke contest you both attended last weekend. You're scrolling through notifications, and there it is—your friend belting out your favorite song with pure joy.  
+[Slider: 0 (stays glued to the phone, barely registering) to 5 (jumps up, grabs your own mic and starts singing along)]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2171,7 +1658,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2182,16 +1669,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I stayed away from reminders of it" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of avoiding reminders.
-Let me think about the original example they gave. The clinical question was about trouble concentrating, and the scenario was about reading a meme caption multiple times because the brain wandered. It's relatable, uses humor, and is short.
-So, for "I stayed away from reminders of it," I need a situation where the user is avoiding something that reminds them of a past event. Maybe something like a song, place, or object that brings up memories. I should make it light and humorous.
-Perhaps a situation where they're at a store and see something that reminds them of an ex. That's a common scenario. They could be holding a product and considering whether to buy it or avoid it. The humor could come from the awkwardness of the situation or the product itself.
-Let me try to draft it: "You're at the store and spot your ex's favorite snack on the shelf. Do you grab it, or keep scrolling?" Hmm, that's concise, relatable, and has a bit of humor. It captures avoiding reminders without being too heavy.
-Wait, maybe I can make it a bit more specific. Instead of "keep scrolling," since they're in a store, maybe "keep walking." So, "You're at the store and spot your ex's favorite snack on the shelf. Do you grab it, or keep walking?" That sounds better. It's clear, relatable, and the choice is between engaging with the reminder or avoiding it.
-I think that works. It's light, slightly humorous, and puts the user in a real-life situation where they have to decide how to react to a reminder. The scenario still captures the essence of avoiding reminders without using any clinical language.
-&lt;/think&gt;
-You're at the store and spot your ex's favorite snack on the shelf. Do you grab it, or keep walking?</t>
+          <t>Your favorite band just announced a surprise concert happening tonight, tickets go live in 10 minutes. Your phone buzzes with the notification, but you're wrapped up in a cozy blanket, scrolling through memes instead.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2207,7 +1685,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2218,18 +1696,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Pictures about it popped into my mind" into a fun, engaging real-life scenario for a mental wellness app. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they would respond. The scenario should capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about intrusive thoughts or mental images popping into one's mind. So, the scenario should depict a moment where this happens in a relatable way.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It uses a humorous, everyday situation (reading a meme) and a relatable struggle (mind wandering).
-So, for "Pictures about it popped into my mind," I need a similar setup. Maybe a situation where the user is trying to focus on something, but their mind keeps bringing up images. It should be light and funny.
-I should think of a common activity where this might happen. Maybe while working, watching TV, or during a conversation. Let's pick something like watching a favorite show because it's relatable and can be humorous.
-So, the scenario could be: "You're trying to enjoy your favorite show, but suddenly, your brain decides to play a slideshow of all the things you were supposed to do today. What do you do next?"
-Wait, that's a bit long. Let me make it shorter and more engaging. Maybe something like: "You're mid-binge of your favorite show, and boom! Your brain starts screening a mental movie of all the stuff you were supposed to do today. What's your next move?"
-That's better. It uses a relatable situation (binge-watching a show), adds a humorous twist with "boom" and "mental movie," and keeps it concise. It also captures the essence of intrusive thoughts interrupting the present moment.
-I think this fits the guidelines. It's light, slightly humorous, and realistic. The user can imagine themselves in that moment and choose how they'd respond, which aligns with the app's purpose of assessing their reaction to such situations.
-&lt;/think&gt;
-You're mid-binge of your favorite show, and boom! Your brain starts screening a mental movie of all the stuff you were supposed to do today. What's your next move?</t>
+          <t>You just woke up to the smell of freshly baked cookies wafting from downstairs. Your eyes flutter open, and suddenly, a flood of images dances through your head – perfectly golden cookies, steamy cups of tea, maybe even a cozy blanket to curl up with while you indulge.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2245,7 +1712,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2256,14 +1723,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was jumpy and easily startled" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario needs to be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their reaction. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I was jumpy and easily startled," I need a situation where the person is in a state where they're easily startled. Maybe a common situation where sudden noises or movements can startle someone. Coffee shops are good because they're bustling with noise. A sudden loud noise like a blender or someone dropping something could startle them.
-I should make it humorous. Maybe exaggerate the startle response a bit for effect. The user's reaction options would range from being very startled to not being fazed, which ties into the scale.
-Putting it together: "You're sipping your latte in a busy coffee shop when suddenly a blender roars to life behind you. How high do you jump?"
-&lt;/think&gt;
-You're sipping your latte in a busy coffee shop when suddenly a blender roars to life behind you. How high do you jump?</t>
+          <t>The morning paper rustles loudly as it hits the doorstep, making you practically leap off the couch... or maybe just twitch a little. Your cat, confused by the sudden movement (or lack thereof), stares at you with judgmental green eyes.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2279,7 +1739,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2290,25 +1750,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I tried not to think about it" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. "I tried not to think about it" relates to attempts to suppress thoughts, which is a common cognitive behavior. The scenario should reflect a situation where someone is trying to avoid thinking about something, perhaps something annoying or stressful.
-Thinking about everyday situations where people try not to think about something. Maybe something like an upcoming event, a problem, or something embarrassing. It should be relatable, so maybe something like a work deadline, a social situation, or a personal issue.
-I want to add humor to make it engaging. Maybe something like trying to avoid thinking about a funny or awkward situation. For example, forgetting something important or a funny mishap.
-Let me brainstorm some ideas. Maybe someone trying not to think about a mistake they made, or an upcoming event they're nervous about. Or perhaps something like trying to avoid thinking about a funny incident that's embarrassing.
-Wait, the example given was about reading a meme and the brain wandering. So maybe something similar where the person is trying to focus on something else but their mind keeps drifting back.
-So, perhaps a situation where the person is trying to focus on a task, but their mind keeps going back to something they're trying to avoid thinking about. Maybe something like trying to watch TV but can't stop thinking about an embarrassing moment.
-Alternatively, maybe something like trying to enjoy a meal but can't stop thinking about a stressful situation.
-I think the key is to make it relatable and add a bit of humor. Let's try to come up with a scenario where the person is in a relaxing situation but their mind keeps drifting back to something they're trying to avoid.
-For example: "You're trying to relax on the couch, but your brain keeps replaying that awkward conversation from yesterday like it's on repeat. What do you do?"
-Hmm, that's good. It's relatable, has a bit of humor, and captures the essence of trying not to think about something but failing.
-Alternatively, maybe something like: "You're attempting to enjoy your favorite show, but your mind insists on rerunning that embarrassing moment from work. How do you handle it?"
-I think the first one is better because it's more concise and the scenario is clear. The example given in the guidelines was also concise, so I should aim for that.
-So, the scenario would be: "You're trying to relax on the couch, but your brain keeps replaying that awkward conversation from yesterday like it's on repeat. What do you do?"
-That fits all the guidelines. It's light, relatable, and humorous. It describes a situation where the person is trying not to think about something (the awkward conversation) but can't help it. The user can then choose how they'd respond, which ties into the scale of how strongly they'd react or what method they'd use to cope.
-I think that's a solid scenario. It captures the essence of the original question without using any of the forbidden phrases and keeps it engaging.
-&lt;/think&gt;
-You're trying to relax on the couch, but your brain keeps replaying that awkward conversation from yesterday like it's on repeat. What do you do?</t>
+          <t>Your favorite coffee shop just announced a limited edition latte flavor that sounds outrageously delicious.  You wake up to the smell of rain outside.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2324,7 +1766,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2335,16 +1777,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I was aware that I still had a lot of feelings about it, but I didn't deal with them" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and was relatable.
-First, I should understand the essence of the original question. It's about being aware of unresolved emotions but not addressing them. So, the scenario should capture that feeling of knowing something is bothering you but choosing not to confront it.
-I need to make it realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous. Also, it should avoid phrases like "how often" or "do you feel." Instead, describe a situation where the user can imagine their response.
-Thinking about everyday situations where someone might avoid dealing with their emotions. Maybe something like scrolling through social media to distract oneself. That's a common and relatable activity.
-So, the scenario could involve the user noticing they're scrolling mindlessly on their phone because they don't want to think about something that's been on their mind. Then, they realize they've been doing this for a while, and they have to decide what to do next.
-Putting it together: "You're scrolling through your phone for the 20th minute, avoiding that thing that's been on your mind all day. What do you do next?"
-This captures the avoidance of dealing with emotions, uses a relatable situation, and keeps the tone light. It also allows the user to imagine their response, fitting the requirement for a scale response.
-&lt;/think&gt;
-You're scrolling through your phone for the 20th minute, avoiding that thing that's been on your mind all day. What do you do next?</t>
+          <t>You just stumbled upon an old journal from last year filled with scribbles about that big project you thought you'd forgotten. The cover creaks open to a page detailing all the unfinished reflections and emotions. Your cat nudges your hand, but your gaze lingers on those words.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2360,7 +1793,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2371,45 +1804,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "My feelings about it were kind of numb" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their reaction. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about feeling numb about something. So, the scenario should depict a situation where the user feels emotionally detached or indifferent.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-I need to think of a common situation where someone might feel numb. Maybe something like watching a movie that's supposed to be emotional but not feeling anything. Or maybe a situation where they're supposed to be excited or upset but just feel nothing.
-Let me brainstorm a few ideas. Maybe something like watching a sad movie but not feeling sad. Or getting news that's supposed to be exciting but feeling indifferent. Or perhaps a social situation where others are emotional, but the user isn't.
-I think the movie scenario is a good fit. It's relatable, and people often watch movies expecting to feel something. So, if the user is watching a sad movie but feels nothing, that captures the numbness.
-Now, how to phrase it humorously. Maybe something like, "You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What do you do?"
-Wait, the example uses a question at the end, but the user wants just the scenario. So, I should end with a question that prompts the user to choose their response, but in the final answer, I should only include the scenario.
-Wait, no, the example provided by the user ends with "What's your next move?" but in the guidelines, it says to describe the situation and let the user imagine what they would do. So, perhaps the scenario should end with a question that invites the user to choose their action, but in the final answer, I should only include the scenario part, not the question.
-Wait, looking back, the example given by the user includes the scenario and the question. But in the guidelines, it says to "describe a situation and let the user imagine what they would do." So, perhaps the scenario should end with a question that prompts the user to think about their response.
-But in the example, the scenario is followed by "What's your next move?" So, I think including a similar prompt is acceptable.
-Wait, but the user's instruction says: "And strictly only include just the scenario nothing else." So, perhaps I should only include the scenario without the question.
-Wait, the example provided by the user includes both the scenario and the question. But in the guidelines, it says to "describe a situation and let the user imagine what they would do." So, perhaps the scenario should end with a question that invites the user to choose their response, but in the final answer, I should only include the scenario part, not the question.
-Wait, I'm a bit confused. Let me check the example again. The example given is:
-Clinical Question: “I had trouble concentrating.”
-Answer: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?"
-So, the answer includes both the scenario and the question. But the user's instruction says: "And strictly only include just the scenario nothing else." So, perhaps I should only include the scenario without the question.
-Wait, but the example includes the question. Maybe the user wants both. Let me read the guidelines again.
-The guidelines say: "Make the situation realistic and short (1-2 sentences). Avoid using phrases like 'how often' or 'do you feel.' Instead, describe a situation and let the user imagine what they would do."
-So, the scenario should be 1-2 sentences that describe the situation, and then perhaps a question that prompts the user to choose their response. But the user's instruction says to include only the scenario, nothing else. So, perhaps I should just include the scenario without the question.
-Wait, but the example includes the question. So, perhaps the user wants both. Maybe I should include both.
-Wait, the user's instruction says: "And strictly only include just the scenario nothing else." So, perhaps I should only include the scenario, without the question.
-But the example includes the question. So, perhaps the user wants both. Maybe I should include both.
-I think the best approach is to follow the example. The example includes both the scenario and the question, so I should do the same.
-So, for the question "My feelings about it were kind of numb," I can create a scenario like: "You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What's your next move?"
-That's two sentences, relatable, slightly humorous, and captures the feeling of numbness.
-Alternatively, another scenario could be: "You're at a party where everyone's laughing and having a blast, but you're just standing there, feeling nothing. What do you do?"
-But the rom-com scenario is more specific and vivid, so it's better.
-So, the final scenario would be: "You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What's your next move?"
-Wait, but the user's instruction says to include only the scenario, nothing else. So, perhaps I should omit the question.
-Wait, the example includes the question, so perhaps I should include it as well.
-I think the best way is to follow the example and include both the scenario and the question.
-So, the final answer would be: "You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What's your next move?"
-But the user's instruction says to include only the scenario, nothing else. So, perhaps I should only include the first part.
-Wait, the example includes both, so perhaps the user expects both.
-I think I'll include both as per the example.
-&lt;/think&gt;
-You're watching a rom-com that's supposed to have you sobbing into your popcorn, but instead, you're just... numb. What's your next move?</t>
+          <t>You just stumbled upon an unexpected flyer for a spontaneous weekend adventure — think hiking, campfires, and stargazing. As you pick it up, your eyes skim over the details, but they barely register excitement or dread. Instead, it’s like looking at a distant painting, just...there.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2425,7 +1820,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2436,19 +1831,8 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I found myself acting or feeling like I was back at that time" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and made the situation relatable.
-First, I should understand the original question. It's about feeling like one is back in a past time, which relates to dissociation or feeling disconnected from the present. The scenario should capture that feeling without being too heavy.
-I need to make it realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation where the user can imagine themselves and choose how they'd respond.
-Thinking about relatable situations where someone might feel like they're back in time. Maybe something like flipping through old photos or hearing a song from the past. Those are common triggers that can make people feel nostalgic or disconnected.
-Let me brainstorm some ideas. Maybe something like "You're flipping through old photos on your phone and suddenly feel like you're reliving your middle school years." That's relatable and captures the feeling of being back in time.
-Alternatively, "You hear a song from your teenage years and for a second, you forget what year it is." That's another common trigger and could work well.
-I think the photo idea is good because it's a visual trigger and something people often do. It's also a bit humorous because middle school can be a funny, awkward time to look back on.
-So, putting it together: "You're flipping through old photos on your phone and suddenly feel like you're reliving your middle school years. What's your next move?" That fits the guidelines. It's short, relatable, and has a light tone. It also captures the essence of feeling like you're back in that time without being too clinical.
-I should make sure it's suitable for a scale response, so the user can choose how strongly they relate or how they'd react. The scenario doesn't need to specify the scale, just set up the situation.
-I think that's a solid scenario. It's engaging, uses a common situation, and maintains the required tone.
-&lt;/think&gt;
-You're flipping through old photos on your phone and suddenly feel like you're reliving your middle school years. What's your next move?</t>
+          <t>**Scenario:**
+You stumble upon an old mixtape from your high school days, and as "Your Song" by Elton John starts playing, memories flood back like a wave. Suddenly, you're transported back to those carefree afternoons.  Do you:  🎧🛋️🚀 [Slider: Stay nestled in nostalgia, or burst with the urge to relive those moments]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2464,7 +1848,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2475,16 +1859,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I had trouble falling asleep" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their next move. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I had trouble falling asleep," I need a similar approach. Maybe something that shows the struggle of trying to sleep but being unable to. Think of common scenarios people face when they can't sleep. Maybe lying in bed, tossing and turning, or being distracted by something.
-I should add a bit of humor to make it engaging. Perhaps something like scrolling through a phone, which is a common activity when someone can't sleep. Or maybe thinking about random things, like forgetting to buy milk or planning tomorrow's outfit.
-Let me try to craft a sentence. "You've been lying in bed for 20 minutes, but your brain is suddenly a productivity guru, reminding you of every tiny task you forgot to do today. What do you do?" Hmm, that's a bit long. Maybe make it shorter and more relatable.
-Alternatively, "You're wide awake at midnight, and your brain is running a marathon of random thoughts. What's your next move?" That's concise and captures the essence. It uses a metaphor (marathon of thoughts) to show the mind racing, which is a common issue when trying to fall asleep.
-I think that works. It's light, slightly humorous, and relatable. The user can imagine themselves in that situation and choose how they'd respond, which ties back to the original question about trouble falling asleep.
-&lt;/think&gt;
-You're wide awake at midnight, and your brain is running a marathon of random thoughts. What's your next move?</t>
+          <t>The clock ticks past midnight, and your cozy bed feels like a warm hug you don’t want to leave. Outside, crickets chirp their nightly serenade, but inside, your mind is buzzing like a squirrel on espresso.  Stars peek through the window, taunting you with their peaceful slumber.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2500,7 +1875,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2511,41 +1886,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I had waves of strong feelings about it" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about experiencing strong emotions in waves. So, the scenario should depict a situation where someone is feeling overwhelmed by fluctuating emotions.
-I should think of a relatable situation where emotions might come in waves. Maybe something common like a busy day, a conversation, or a personal moment. The example given was about reading a meme, which is casual and funny. I need something similar.
-Perhaps a situation where the person is trying to do something simple, but their emotions keep interrupting. Maybe something like watching a movie, but emotions keep distracting them. Or maybe something like cooking, but emotions are fluctuating.
-Wait, the example used a meme, which is light and relatable. Maybe I can use a similar approach. Let's think of a situation where the person is doing something everyday, but their emotions are all over the place.
-How about something like being on a rollercoaster of emotions while doing something mundane, like folding laundry. That's relatable and can be made humorous.
-So, the scenario could be: "You're folding laundry when suddenly you're hit with a wave of strong emotions, switching from calm to overwhelmed in seconds. What do you do next?"
-Wait, that's a bit too direct. Maybe make it more engaging. Let's add some humor. Maybe the laundry itself is causing the emotions, which is a bit absurd but relatable.
-Alternatively, think of a situation where emotions are triggered by something small, like a song or a smell. But I need to keep it light.
-Another idea: You're trying to enjoy a quiet evening, but your emotions are like a rollercoaster—up, down, and everywhere. What's your move?
-Hmm, that's a bit vague. Maybe make it more specific. Let's say you're watching a movie, and the emotions are so strong that you can't focus. Or maybe you're cooking dinner, and the emotions are making it hard to concentrate.
-Wait, the example used a meme, so maybe something similar. Let's think of a situation where the person is trying to relax, but emotions are fluctuating.
-How about: "You're trying to relax on the couch, but your emotions are flipping like a TV channel surfer—happy, sad, excited, annoyed, and back again. What do you do?"
-That's a bit long, but it's engaging and relatable. It uses a metaphor that's easy to visualize.
-Alternatively, make it even more relatable: "You're scrolling through your phone, and every post is hitting you differently—laughing one second, feeling down the next. What's your next move?"
-That's good because it's a common activity, and the emotions are in waves. It's light and slightly humorous.
-Wait, but the original question is about having waves of strong feelings about "it," which is unspecified. So the scenario should be about a specific situation where emotions are fluctuating.
-Maybe the scenario is about a particular event, like a conversation or a decision, that's causing these emotional waves.
-For example: "You're thinking about a big decision, and your emotions are going up and down like a seesaw—excitement, doubt, hope, fear, all in a loop. What do you do?"
-That captures the essence of strong, fluctuating emotions about something specific.
-Alternatively, make it more humorous: "You're trying to plan a simple dinner, but your emotions are doing the tango—excited, anxious, excited again, and you're just trying to keep up. What's your next step?"
-Hmm, that's a bit forced. Maybe stick with a more common scenario, like a conversation or a decision.
-Another approach: Use a metaphor that's relatable, like a rollercoaster. "You're on an emotional rollercoaster—up, down, twist, turn—and you're just trying to stay seated. What do you do?"
-That's concise and uses a strong metaphor. It's engaging and easy to imagine.
-Wait, but the example used a specific activity (reading a meme) and a specific reaction (brain wandering). Maybe I should tie it to a specific activity that's relatable.
-How about: "You're in the middle of a group chat, and each message is making you feel a different emotion—happy, annoyed, excited, worried, and back again. What do you do?"
-That's realistic and relatable. It shows the waves of emotions in response to different stimuli.
-Alternatively, make it about a personal moment: "You're reflecting on your day, and your emotions are like a pendulum—swinging from calm to stressed and back again. What's your next move?"
-That's a bit more introspective but still relatable.
-I think the key is to create a scenario that's easy to visualize, slightly humorous, and captures the fluctuating emotions without being too heavy.
-So, considering all these thoughts, I think the best scenario would be something like: "You're trying to enjoy a quiet evening, but your emotions are flipping like a TV channel surfer—happy, sad, excited, annoyed, and back again. What do you do?"
-It's light, uses a relatable metaphor, and allows the user to imagine their response.
-&lt;/think&gt;
-"You're trying to enjoy a quiet evening, but your emotions are flipping like a TV channel surfer—happy, sad, excited, annoyed, and back again. What do you do?"</t>
+          <t>You just opened your email to find an unexpected invitation to a spontaneous adventure – think hot air balloon ride or secret beach bonfire. The sun is shining, but your cozy blanket fort is whispering sweet nothings.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2561,7 +1902,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2572,21 +1913,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I tried to remove it from my memory" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about trying to forget something, which relates to memory suppression or avoidance. So, the scenario should involve a situation where the user is trying to forget a memory, perhaps something embarrassing or unpleasant.
-I should think of a relatable situation where someone might try to forget something. Maybe something like a social faux pas, like tripping in public or spilling something. These are common and can be embarrassing, making the user want to forget the incident.
-Let me brainstorm some ideas. Maybe something like spilling coffee on a shirt during a presentation. That's relatable and a bit embarrassing. Or tripping on the stairs in front of people. Another idea could be saying something awkward in a meeting.
-I think the example given was about reading a meme, so maybe something similar in a social context. Let's go with spilling coffee because it's a common occurrence and can be a bit embarrassing.
-So, the scenario could be: "You just spilled coffee all over your shirt during a big presentation, and now everyone’s staring. What do you do next?" This captures the moment where the person might want to forget the embarrassment, hence trying to remove it from their memory.
-Wait, but the original question is about trying to remove it from memory, not necessarily the action of dealing with the embarrassment. So maybe the scenario should focus more on the act of trying to forget rather than the embarrassing event itself.
-Hmm, perhaps the scenario should be after the event, when the person is trying to forget it. So, maybe something like: "You’re lying in bed, and that embarrassing moment from yesterday keeps popping into your head. What do you do?" But that's a bit too direct and doesn't have the humorous touch.
-Alternatively, using a metaphor or a relatable activity. Maybe something like scrolling through social media and seeing a post that reminds them of the embarrassing moment. Then they try to forget it.
-Wait, the example used a meme, so maybe something similar. "You’re scrolling through your social media feed when a post pops up that reminds you of that cringe moment from last week. What’s your move?" That seems to fit. It's relatable, uses a common activity, and the situation is clear.
-But I need to make sure it's about trying to remove it from memory. So, the scenario should imply that the user is trying to forget, perhaps by avoiding the reminder. So, maybe the action is about what they do when reminded, which ties into how they handle trying to forget.
-I think the scenario I came up with fits well. It's short, relatable, and has a light tone. The user can imagine themselves in that situation and choose how they'd respond, which ties into the scale of how strongly they try to remove the memory.
-&lt;/think&gt;
-You’re scrolling through your social media feed when a post pops up that reminds you of that cringe moment from last week. What’s your move?</t>
+          <t>You just stumbled upon an old playlist titled "Epic Fail Moments." Curtains drawn, cozy blanket in hand, you consider whether to dive back into dreamland or hit shuffle and laugh at those cringeworthy memories instead.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2602,7 +1929,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2613,17 +1940,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I had trouble concentrating" into a fun, engaging real-life scenario for a mental wellness app. The example given was about reading a meme caption multiple times because the brain wandered off. I should follow that style.
-First, I need to think of a relatable situation where someone would have trouble concentrating. Maybe something common like working on a computer, where distractions are easy. The example used a meme, so maybe something similar but different enough.
-I want to keep it light and humorous. Maybe involve something like a cat video or a funny meme. The situation should be short, just 1-2 sentences. I should avoid phrases like "how often" and instead focus on the action.
-So, the user is trying to focus on work but gets distracted by something funny online. They end up watching a video instead of working. That captures the trouble concentrating because they're distracted.
-I should make sure the scenario still reflects the psychological aspect of having trouble concentrating. The example used a meme, so maybe I can use a similar approach but with a different distraction, like a cat video.
-Putting it all together, the scenario could be: "You're trying to focus on an important work project, but you just stumbled upon a hilarious cat video that's completely derailed your train of thought. What do you do next?"
-Wait, that's a bit long. Let me make it shorter. Maybe: "You're supposed to be working, but a funny cat video just took over your screen. What's your next move?"
-Hmm, that's concise and fits the guidelines. It's relatable, light, and humorous. The user can imagine themselves in that situation and choose how they'd respond, which ties back to their ability to concentrate.
-&lt;/think&gt;
-"You're supposed to be working, but a funny cat video just took over your screen. What's your next move?"</t>
+          <t>You just opened your favorite novel, the one with the cliffhanger ending from last night, and suddenly, your cat decides this is the perfect moment to demand belly rubs and attention. The pages flutter shut, and you’re torn between the promise of adventure and purring persuasion.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2639,7 +1956,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2650,34 +1967,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Reminders of it caused me to have physical reactions such as sweating, trouble breathing, nausea, or a pounding heart" into a fun, engaging real-life scenario. The user wants the scenario to be light, slightly humorous, and relatable, without using phrases like "how often" or "do you feel." It should be short, 1-2 sentences, and capture the psychological essence of the original question.
-First, I should think about situations where someone might experience physical reactions like sweating, trouble breathing, nausea, or a pounding heart. These are typical symptoms of anxiety or stress responses. So, I need a scenario that triggers such a reaction.
-The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It's relatable and humorous. I need something similar but related to physical reactions when reminded of something stressful.
-Maybe a situation where the user is reminded of something anxiety-inducing. Let's think of common anxiety triggers. Public speaking, exams, tight deadlines, or maybe something like a sudden noise or a specific place.
-Wait, the example used a meme, which is light and everyday. I should find something equally everyday but can trigger a physical reaction. Maybe something like receiving an unexpected message or notification that brings up stress.
-Alternatively, think of a situation where the user is in a relaxed state, and then something happens that reminds them of a stressful event. For example, when they're about to relax, like watching TV or a movie, and a scene comes up that reminds them of something stressful.
-Wait, the example used a meme, which is visual and relatable. Maybe I can use a similar approach. Let's think of a scenario where the user is doing something casual, like scrolling through their phone, and they come across something that reminds them of a stressful event.
-So, maybe the user is scrolling through social media and sees a post that reminds them of something they're trying to forget or that causes them anxiety. How would they react physically? Sweating, trouble breathing, etc.
-But I need to make it light and humorous. Maybe instead of social media, it's something more unexpected, like a song coming on that reminds them of a past stressful event. Or maybe a specific smell or sound.
-Wait, the example used a meme, so perhaps something similar. Maybe the user is looking at photos on their phone and comes across an old one that brings up stressful memories. That could trigger physical reactions.
-Alternatively, think of a situation where the user is in a public place, like a coffee shop, and something happens that reminds them of a past stressful event, causing a physical reaction.
-I think the key is to make the scenario relatable and light, so the user can imagine themselves in it. Let's try to craft a scenario where the user is in a relaxed setting, and then something triggers a reminder, causing a physical reaction.
-Maybe something like: "You're at a coffee shop, sipping your latte, when suddenly a song plays that reminds you of a past stressful event. Your heart starts racing, and you feel a bit sweaty. What do you do?"
-But I need to make it more engaging and slightly humorous. Maybe add a bit of exaggeration or a funny detail.
-Alternatively, think of a situation where the user is trying to relax, like taking a bath, and then a reminder pops up on their phone, causing a physical reaction. But that might be too specific.
-Wait, the example used a meme, so perhaps using a similar context. Maybe the user is reading something online, and a specific word or image reminds them of something stressful, leading to physical symptoms.
-Alternatively, think of a scenario where the user is in a meeting or a class, and a topic comes up that reminds them of a past stressful event, causing them to feel anxious physically.
-But I need to keep it light. Maybe something like: "You're in the middle of a group chat when someone mentions a topic that instantly brings up memories you'd rather forget. Your palms start sweating, and your heart feels like it's in a marathon. What's your move?"
-Hmm, that's a bit long. Let me try to make it shorter and more engaging.
-Maybe: "You're chillin' on the couch when a commercial comes on that reminds you of something you're trying to forget. Suddenly, your heart is racing like you just ran a mile. What do you do?"
-That's better. It's relatable, light, and sets up a clear scenario where the user can imagine their reaction.
-Alternatively, using a phone notification: "Your phone buzzes with a notification, and the name that pops up makes your stomach twist into knots. What's your next move?"
-But I think the commercial example is more neutral and relatable. It's something that can happen to anyone, and the reaction is physical, which ties back to the original question.
-So, the scenario would be: "You're chillin' on the couch when a commercial comes on that reminds you of something you're trying to forget. Suddenly, your heart is racing like you just ran a mile. What do you do?"
-This captures the physical reactions (racing heart) and the reminder causing the reaction. It's light, relatable, and slightly humorous with the comparison to running a mile.
-&lt;/think&gt;
-You're chillin' on the couch when a commercial comes on that reminds you of something you're trying to forget. Suddenly, your heart is racing like you just ran a mile. What do you do?</t>
+          <t>Your friend just surprised you with tickets to a concert you’ve been dying to see all year. As you open the message, your heart starts racing, and you feel a mix of butterflies and a sudden urge to jump up and start planning your outfit. Or, alternatively, you might feel your palms sweat, and the thought makes you want to curl back under the blankets.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2693,7 +1983,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2704,17 +1994,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I had dreams about it" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, turning it into a relatable and slightly humorous situation. 
-First, I should understand the essence of the original question. It's about having recurring dreams related to something, which suggests that the subconscious is processing or fixated on that topic. The scenario should capture that feeling without being too heavy.
-I want to make it light and relatable. Maybe something that people often experience, like waking up from a dream and feeling it linger. Adding a bit of humor would make it more engaging. 
-Perhaps using a common situation, like waking up and still feeling the dream's impact. Maybe something about the dream being so vivid that it's hard to shake off, and then the user has to decide how to react. 
-I should avoid phrases like "how often" and instead focus on the immediate reaction. The scenario should be short, just a couple of sentences, and end with a question that prompts the user to choose their response level.
-Thinking of a funny example, maybe something like waking up from a dream about forgetting an exam, which is a common anxiety dream. Then, the user feels the need to check their schedule, which is a relatable reaction. 
-So, putting it together: "You wake up in a panic after dreaming you forgot a big exam, and now you're half-tempted to check your calendar... for the third time. How strongly is that dream still got you shook?"
-This captures the essence of having dreams about something, the lingering anxiety, and the humorous reaction of repeatedly checking the calendar. It also allows the user to rate how strongly they feel the effect of the dream.
-&lt;/think&gt;
-You wake up in a panic after dreaming you forgot a big exam, and now you're half-tempted to check your calendar... for the third time. How strongly is that dream still got you shook?</t>
+          <t>You wake up to birds chirping outside your window, and the first thing that pops into your mind are vivid scenes from last night’s incredible dream—think flying over fluffy clouds and meeting talking unicorns. Your cozy blanket suddenly feels very appealing, or maybe it’s the perfect motivation to leap out of bed to jot down those dream details before they fade away.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2730,7 +2010,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2741,50 +2021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I felt watchful and on-guard" into a fun, engaging real-life scenario for a mental wellness app. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they'd respond. The scenario should still capture the psychological essence of feeling watchful and on-guard, and it should be suitable for a scale response.
-First, I need to understand what "felt watchful and on-guard" means. It's about feeling vigilant, maybe anxious or tense, as if something might happen and you're ready to react. So, I need a situation where someone might feel that way.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-I should think of a common situation where someone might feel the need to be watchful. Maybe something unexpected happening, like a sudden noise or an unexpected event. Or perhaps a social situation where they feel they need to be cautious.
-Let me brainstorm some ideas. Maybe something like walking alone at night and hearing a noise behind you. That could make someone feel watchful and on-guard. Or perhaps in a crowded place where someone bumps into them, making them feel the need to be vigilant.
-Wait, the example uses a relatable, everyday situation with a humorous twist. So maybe I can think of a situation that's a bit funny but still conveys the feeling.
-How about something like being in a situation where you're waiting for something to happen, and you're on edge. Maybe waiting for a surprise party, but it's taking too long, and you're getting anxious. Or maybe waiting for a delivery and being overly alert for the doorbell.
-Alternatively, maybe a scenario where you're trying to relax but can't because you're anticipating something. Like trying to watch TV but jumping at every little sound.
-Wait, the example uses a situation where the brain is wandering, so maybe something similar but related to feeling watchful. Maybe something like being in a quiet place and suddenly hearing a strange noise, making you feel on guard.
-Let me try to craft a sentence. "You're home alone on a stormy night, and every creak of the house makes you jump. What do you do?" Hmm, that's a bit too generic. Maybe add some humor.
-Alternatively, "You're trying to enjoy a peaceful evening, but every little sound makes you feel like you're in a horror movie. What's your next move?" That adds a bit of humor by referencing horror movies, which people can relate to.
-Wait, the example uses a meme, which is very relatable and modern. Maybe I can use something similar. How about a situation involving technology or everyday tech issues that cause a startle.
-Wait, maybe something like this: "You're working from home when your cat jumps onto your keyboard, and now your boss is asking why you just sent a random string of letters. What do you do?" Hmm, that's more about embarrassment than feeling watchful.
-Alternatively, "You're at a coffee shop, and someone sits down next to you with a loud conversation, making you feel like you're on high alert. What's your move?" That's more about feeling annoyed or distracted.
-Wait, perhaps a situation where you're waiting for something important, like a text message or an email, and you're constantly checking your phone, feeling on edge. "You've been waiting for an important text all day, and every buzz from your phone makes you jump. What do you do?" That captures the feeling of being watchful and on-guard.
-Alternatively, maybe a social situation where you're feeling anxious, like meeting new people. "You're at a party, and every time someone approaches, you feel like you're bracing for impact. What's your next move?" That could work, but it's a bit more about social anxiety.
-Wait, the original question is about feeling watchful and on-guard, which is more about vigilance and tension, possibly related to anxiety. So, a situation that triggers that feeling.
-How about this: "You're walking through a crowded market, and every bump from the crowd makes you feel like you're on high alert. What do you do?" That's a bit too generic, but it does capture the feeling.
-Alternatively, using a more relatable and humorous scenario: "You're trying to relax on your couch, but every little noise makes you feel like you're in a action movie, waiting for the next move. What's your next step?" That adds a bit of humor by comparing it to an action movie.
-Wait, the example used a meme, which is very current and relatable. Maybe I can use something similar. How about: "You're scrolling through your feeds when you see a post that makes you feel like you're walking on eggshells. What do you do?" Hmm, that's more about feeling cautious in a social media context.
-Alternatively, "You're playing a game where you have to wait for the perfect moment to act, and every second feels like an eternity. What's your move?" That's more about gaming and strategy, not exactly capturing the feeling of being watchful in real life.
-Wait, perhaps a situation involving waiting for something, like a delivery or a message, and being overly alert. "You've been waiting for a package all day, and every knock on the door startles you. What do you do?" That's a possibility.
-Alternatively, "You're at a busy café, and every time someone walks by, you feel like you're on guard. What's your next move?" That's more about feeling anxious in a crowded place.
-Wait, maybe something like this: "You're trying to focus on your work, but every little noise in the office makes you jump. What do you do?" That's relatable and captures the feeling of being on guard.
-Alternatively, "You're in a meeting, and every time someone looks at you, you feel like you're under a microscope. What's your next move?" That's more about feeling self-conscious.
-Wait, perhaps a scenario involving a sudden noise. "You're in a quiet library when someone's phone suddenly rings loudly. What do you do?" That's a bit too specific, but it does capture a startle response.
-Alternatively, "You're in a quiet room when you hear a strange noise behind you. What's your next move?" That's simple and effective, but maybe too straightforward.
-Wait, the example used a humorous twist with a meme. Maybe I can do something similar. How about: "You're trying to enjoy a peaceful evening when your neighbor decides to practice their drumming skills. What do you do?" That adds a bit of humor and relatability.
-Alternatively, "You're home alone when you hear a strange creaking sound. What's your next move?" That's classic, but maybe a bit too common.
-Wait, perhaps combining the idea of being watchful with a common, relatable situation. "You're waiting for a text from someone important, and every notification makes you jump. What do you do?" That captures the feeling of being on guard, waiting for something.
-Alternatively, "You're in a crowded place, and every bump makes you feel like you're in a real-life video game. What's your next move?" That adds a bit of humor by comparing it to a video game.
-Wait, the example used a meme and brain wandering, so maybe something similar. How about: "You're trying to watch your favorite show, but every little sound makes you feel like you're in a horror movie. What do you do?" That adds humor by referencing horror movies.
-Alternatively, "You're at a coffee shop, and every time someone walks by, you feel like you're on high alert. What's your move?" That's more about feeling anxious in public.
-Wait, perhaps a scenario involving technology. "You're working on your computer when it suddenly makes a strange noise. What do you do?" That's a bit too vague.
-Alternatively, "You're in a meeting, and every time someone speaks, you feel like you're bracing for impact. What's your next move?" That's more about feeling anxious in a professional setting.
-Wait, maybe something like this: "You're trying to relax, but every little sound makes you jump, like you're waiting for a surprise party that never comes. What do you do?" That adds a bit of humor by comparing it to a surprise party.
-Alternatively, "You're home alone, and every creak of the house makes you feel like you're in a suspense movie. What's your next move?" That's a bit dramatic but relatable.
-Wait, perhaps combining the idea of being watchful with a common activity. "You're cooking dinner when you hear a strange noise in the kitchen. What do you do?" That's a bit too specific.
-Alternatively, "You're trying to meditate, but every little sound breaks your concentration. What's your next move?" That's more about mindfulness and distraction.
-Wait, maybe something like this: "You're in a quiet room when you hear a sudden, loud noise. What do you do?" That's straightforward but captures the startle response.
-Alternatively, "You're at a park when a stranger approaches you, and you feel like you're on guard. What's your next move?" That's more about feeling unsafe.
-Wait, perhaps a scenario involving waiting and anticipation. "You've been waiting for an important call, and every ringtone startles you. What do you do?" That captures the feeling of being on guard.
-Alternatively</t>
+          <t>You just heard a sudden loud noise outside your window late at night. Your heart skips a beat, and you glance nervously towards the door, half-expecting something unexpected.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2800,7 +2037,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2811,18 +2048,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I tried not to talk about it" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario needs to be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. "I tried not to talk about it" suggests that the person is avoiding discussing something, possibly because it's uncomfortable, painful, or they're not ready. So the scenario should involve a situation where someone is tempted to talk about something but decides not to.
-I should think of a common, relatable situation where this might happen. Maybe a friend or family member brings up a sensitive topic, and the person has to decide whether to discuss it or not. Using a friend as the other person makes it more personal and easier to imagine.
-To add humor, I can make the situation a bit exaggerated or use a funny example. Maybe the friend is being nosy or persistent, which adds a bit of tension. The scenario should present a moment where the user has to make a choice, which will reflect their tendency to avoid talking about certain things.
-I also need to keep it concise. So, perhaps something like a friend asking about something personal, and the user has to decide whether to open up or deflect. Using a metaphor or a humorous comparison could make it more engaging.
-Let me try drafting a few ideas. Maybe something involving a secret or a personal topic that the user doesn't want to discuss. The friend could be pushing for details, and the user has to think of a way to avoid the conversation without being rude.
-I think using a relatable situation like a friend asking about a recent event or a personal issue would work. The user can imagine themselves in that moment, feeling the urge to talk but choosing not to. The humor can come from the friend's persistence or the user's creative way of deflecting.
-Putting it all together, I can create a scenario where a friend brings up a sensitive topic, and the user has to decide how to respond. The scenario should be light-hearted but still capture the essence of avoiding conversation.
-I think I have a good idea. Let me phrase it in a way that's engaging and fits the guidelines.
-&lt;/think&gt;
-Your friend just asked about that one thing you’ve been dodging all week, and you’re suddenly very interested in the pattern on your coffee mug. What do you do?</t>
+          <t>Your best friend bursts through the door, eyes sparkling with a story about their hilarious misadventure at the grocery store. They lean in, ready to spill the tea. You're currently perfectly cocooned in your favorite blanket, a steaming mug in hand, contemplating whether to join the tale or let the silence stretch just a tad longer.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2838,7 +2064,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0=Not at all , 1=A little Bit, 2=Moderately, 3=Quite a Bit, 4=Extremely</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2849,23 +2075,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I have felt cheerful in good spirits." into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, humorous, and sets up a clear scenario where the user can imagine their reaction.
-So, for "I have felt cheerful in good spirits," I need to create a scenario where the user is feeling cheerful and in good spirits. Maybe a situation where something positive happens, and the user has to choose how they react. It should be something that naturally leads to a cheerful response.
-Perhaps something like waking up to a sunny day, getting good news, or a fun event happening. Let me think of a common, relatable situation. Maybe something like receiving an unexpected compliment or a fun surprise.
-Wait, the example uses a meme, which is modern and relatable. Maybe I can use something similar but positive. How about something like finding money on the ground? That's a common, cheerful moment.
-Alternatively, maybe something like a friend inviting them to a spontaneous fun event. That could work. Let me try to craft a sentence.
-"You find a $20 bill on the ground and suddenly the day feels like it's going your way. What do you do next?" Hmm, that's positive but maybe a bit too materialistic. I want to focus on feeling cheerful, not just luck.
-Alternatively, "You spill coffee all over your shirt, but somehow you're still grinning like you just won the lottery. What's your move?" Wait, that's more about dealing with a mishap while feeling cheerful. Maybe that's a good angle.
-Or, "You're walking down the street, and a stranger gives you a genuine compliment. How do you react?" That's positive and relatable.
-Wait, the original question is about feeling cheerful, so the scenario should reflect that feeling. Maybe the user is already in a good mood and something happens that they respond to.
-Alternatively, "You're at a party, and your favorite song comes on. What do you do?" That's a cheerful scenario, but it's more about action than the feeling itself.
-Wait, perhaps a scenario where the user is feeling cheerful and has to decide how to express or act on that feeling. For example, "You're feeling so cheerful that even the usually annoying elevator music sounds like a dance track. What do you do?"
-That's light, humorous, and relatable. It captures the essence of feeling in good spirits and invites the user to imagine their reaction. It's short and sets up a clear scenario where the user can choose their response on a scale.
-I think that works. It's positive, uses a common situation (elevator music), adds humor by making the music sound like a dance track, and invites the user to think about their action. It avoids any negative language and focuses on the cheerful feeling.
-&lt;/think&gt;
-You're feeling so cheerful that even the usually annoying elevator music sounds like a dance track. What do you do?</t>
+          <t>Your best friend just surprised you with tickets to an outdoor concert featuring your all-time favorite band. Sunlight streams through your curtains as you hear the distant sound of laughter from the street below.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2881,7 +2091,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2892,19 +2102,8 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I have felt calm and relaxed" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and puts the user in a situation where they can imagine their reaction.
-So, for "I have felt calm and relaxed," I need a scenario where the user is in a calm state. Maybe a common, everyday situation where someone feels relaxed. Let me think of activities associated with calmness—like taking a bath, reading a book, or enjoying a cup of tea.
-I want to add a bit of humor or a twist to make it engaging. Maybe something like sipping tea and feeling so calm that they forget they're supposed to be doing something else. Or perhaps they're so relaxed that time passes without them noticing.
-Let me try to craft a sentence. "You're sipping your favorite tea, and it's so good that you've forgotten what stress even feels like. What do you do next?" Hmm, that's good, but maybe I can make it a bit more specific or add a bit more humor.
-Alternatively, "You're lounging on the couch, and everything feels so peaceful that you could melt into the cushions. What's your move?" That's also good, but maybe a bit too generic.
-Wait, the example used a situation where the user is doing something and their mind wanders. Maybe I can do something similar but in a calm context. Like, they're so calm that they're unaffected by something that usually bothers them.
-How about: "You're sitting in a quiet park, watching the world go by, and even the loudest bird isn't bothering you. What do you do?" That captures calmness and adds a bit of humor with the loud bird.
-Alternatively, "You've just finished a great yoga session, and you're feeling so zen that even your to-do list doesn't scare you. What's next?" That's also good, but maybe a bit too specific about yoga.
-I think the park scenario is more universal. Let me refine it: "You're in a peaceful park, and even the loudest bird isn't ruining your vibe. What do you do?" That's concise, relatable, and has a touch of humor. It puts the user in a calm state and asks for their response, which can be scaled based on how they react to the situation.
-&lt;/think&gt;
-You're in a peaceful park, and even the loudest bird isn't ruining your vibe. What do you do?</t>
+          <t>You just woke up to the sun streaming through your window, casting a warm glow over your cozy bed. Beside you, your favorite book awaits, promising lazy afternoons and far-off adventures.  
+[Slider from 0 (staying snug under the covers) to 5 (flying out of bed to dive in)]</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2920,7 +2119,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2931,28 +2130,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I have felt active and vigorous" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. "I have felt active and vigorous" relates to energy levels and physical activity. So, the scenario should reflect a situation where someone feels energetic and ready to take on physical activities.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's a relatable, humorous situation that captures the essence of trouble concentrating.
-So, for "active and vigorous," I need a scenario where the person feels full of energy. Maybe something like having extra energy and deciding how to use it. It should be a moment where the user can imagine themselves in that situation and choose their response.
-I should think of a common situation where someone feels energetic. Maybe after a good night's sleep, a morning person feeling ready to go, or after a workout. Or perhaps a spontaneous moment where they have the urge to do something active.
-Let me brainstorm some ideas. Maybe something like: "You've just finished a morning coffee and suddenly feel like you could run a marathon. What do you do?" Or, "It's Saturday morning, and you wake up feeling like a superhero. How do you kickstart your day?"
-Wait, the example uses a situation where the user is in the middle of something and has to decide what to do next. So maybe something similar. Like, being in a situation where they have extra energy and need to choose an activity.
-Another angle: "You're at the park and feel an overwhelming urge to climb the jungle gym like you did as a kid. What's your move?" Hmm, that's a bit specific but could work.
-Alternatively, "You've got an extra bounce in your step and just remembered you have the whole afternoon free. What's the plan?" That's a bit more open-ended.
-Wait, the example uses a situation where the user is in the middle of an activity (reading a meme) and their mind wanders. So maybe a similar structure: in the middle of something, feeling a certain way, and deciding what to do.
-So, perhaps: "You're halfway through a tedious task but suddenly feel like you could tackle a triathlon. What do you do next?" That captures the contrast between a boring task and a surge of energy.
-Alternatively, "You're sitting at your desk, but your legs are bouncing like you're ready to run a sprint. What's your next move?" That's more about restlessness but still related to feeling active.
-Wait, the original question is about feeling active and vigorous, so it's more about having energy rather than restlessness. So maybe a scenario where they have the energy to engage in an activity.
-Another idea: "You're at home on a lazy Sunday, but you're feeling like a dynamo. What do you do?" It's a contrast between the usual lazy day and feeling energetic.
-Or, "You've just finished a big project and feel like celebrating with some physical activity. What's your go-to move?" That ties the energy to an accomplishment.
-Hmm, but the example is more about a sudden, unexpected situation. So maybe something like: "You're in the middle of a Netflix binge, but suddenly you're itching to get up and do something energetic. What do you do?"
-That seems to fit. It's a relatable situation where someone is engaged in a sedentary activity but feels a surge of energy. The user can then choose how they respond, which ties into their energy levels and inclination towards physical activity.
-So, putting it all together, the scenario would be: "You're in the middle of a Netflix binge, but suddenly you're itching to get up and do something energetic. What do you do?"
-This scenario is short, relatable, and humorous. It captures the essence of feeling active and vigorous by contrasting it with a sedentary activity, prompting the user to imagine how they'd act in that moment.
-&lt;/think&gt;
-You're in the middle of a Netflix binge, but suddenly you're itching to get up and do something energetic. What do you do?</t>
+          <t>Your favorite band just announced a surprise concert happening downtown tonight. Sunlight streams through your blinds.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2968,7 +2146,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2979,27 +2157,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I woke up feeling fresh and rested" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and puts the user in a situation where they can imagine their reaction.
-So, for "I woke up feeling fresh and rested," I need to create a similar scenario. Maybe something involving waking up and feeling energized. Perhaps something like hitting the snooze button but feeling rested. Or maybe jumping out of bed with energy.
-Wait, the example uses a situation where the user is already in the middle of an activity (reading a meme) and then asks what they'd do next. So maybe I can structure it similarly. The user wakes up, feels fresh, and then what do they do?
-Alternatively, think of a morning scenario where the user feels rested and ready to go. Maybe something like the sun shining, birds chirping, and the user feels like tackling the day.
-I should make it engaging and a bit funny. Maybe something unexpected happens when they feel rested, like their pet or something reacting to their energy.
-Let me try a few ideas:
-1. "You wake up to your cat sitting on your chest, staring at you like you owe him money. But you feel so rested you could pay him in full. What do you do?"
-   - Hmm, maybe a bit too specific with the cat. Not everyone has a cat.
-2. "Your alarm goes off, but instead of hitting snooze, you jump out of bed like a jackrabbit on a pogo stick. What's next?"
-   - This captures the feeling of being rested and energized. It's relatable and uses a humorous simile.
-3. "You wake up feeling like a brand new person, and your plants are judging you for having so much energy. How do you handle it?"
-   - Maybe a bit too abstract with the plants judging.
-4. "The sun is shining, birds are singing, and you feel like you could take on the world. What's your first move?"
-   - Positive and energetic, but maybe a bit cliché.
-5. "You hit snooze for the fifth time, but you're so rested you could run a marathon. What do you do now?"
-   - Combines the action of hitting snooze with feeling rested, which is a bit contradictory.
-I think option 2 is good because it's relatable, uses humor, and clearly shows the user feeling rested and energized. It puts them in a situation where they can imagine their next action, which ties into how they'd respond when feeling fresh and rested.
-&lt;/think&gt;
-Your alarm goes off, but instead of hitting snooze, you jump out of bed like a jackrabbit on a pogo stick. What's next?</t>
+          <t>Sunrise paints your room in a warm glow, and your alarm clock whispers sweetly instead of shouting. Your cozy blanket feels like a fluffy cloud, but outside, birds are already serenading the day with their cheerful tunes.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3015,7 +2173,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3026,16 +2184,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "My daily life has been filled with things that interest me" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for the question about daily life being filled with interesting things, I need a scenario that reflects engagement and enthusiasm. Maybe something where the user is excited about their activities. Let me brainstorm some ideas.
-Perhaps a situation where the user is juggling multiple hobbies or activities they enjoy. Something like planning a day with lots of fun things. Or maybe they're so into their current activity that they lose track of time.
-Wait, the example uses a situation where the user is distracted, so maybe I can create a scenario where the user is engaged and excited. Let's think about a weekend plan. People often plan their weekends with things they enjoy.
-So, "You've got a weekend ahead of you, and your schedule is packed with all your favorite things—hiking, baking, and a movie marathon. How excited are you to dive in?" That sounds engaging and positive. It allows the user to imagine their level of enthusiasm, which ties back to how interested they are in their daily life.
-I think that works. It's light, relatable, and humorous in a subtle way. It also captures the essence of the original question by focusing on engagement and interest in daily activities.
-&lt;/think&gt;
-You've got a weekend ahead of you, and your schedule is packed with all your favorite things—hiking, baking, and a movie marathon. How excited are you to dive in?</t>
+          <t>You just woke up to the smell of freshly brewed coffee and a notification about a last-minute tickets release for your favorite band's concert tonight. Your comfy blanket is doing its best to keep you cozy.  ☕️🎶</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3051,7 +2200,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0-At no Time, 1-Some of the time,2-Less than half of the time, 3-More than half time, 4-Most of the time, 5-All of the time</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3062,19 +2211,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel emotionally drained by my work" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their next move. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I feel emotionally drained by my work," I need to create a scenario where the user feels that emotional drain. Maybe something that happens after work, like coming home and feeling too tired to do anything. Using a relatable situation, perhaps involving something they usually enjoy but now feel too drained for.
-I should think of a common activity people do after work to unwind, like watching TV, cooking, or exercising. Maybe something like reaching for the remote but feeling too tired. Or maybe something more humorous, like considering takeout because cooking feels too much.
-Wait, the example uses a situation where the brain is wandering, so maybe something similar where the person is too tired to engage in an activity they usually like. Maybe they're too tired to even think about what to watch on TV, or they just collapse on the couch.
-I should make it light and funny. Maybe something like, "You've just walked in the door after a long day at work, and the thought of making dinner feels like climbing Mount Everest. What do you do?" That captures the emotional drain because even a simple task feels overwhelming.
-Alternatively, "You're staring at your couch, and the only thing you want to do is collapse onto it, but your stomach is growling. Do you order takeout or summon the energy to cook?" This adds a bit of humor with the growling stomach and the decision between two options.
-Another idea: "You've just sat down after work, and the remote control feels like it's a mile away. Do you reach for it or just let the silence take over?" This is a bit more subtle but still conveys the feeling of being too drained to do anything.
-I think the first option is better because it's more relatable and clearly shows the emotional drain affecting a daily task. So, the scenario would be: "You've just walked in the door after a long day at work, and the thought of making dinner feels like climbing Mount Everest. What do you do?"
-This scenario is short, realistic, and uses a humorous analogy (Mount Everest) to convey the feeling of being overwhelmed. It allows the user to imagine their response, whether they push through to cook or opt for something easier like takeout. It captures the essence of feeling emotionally drained by work without directly asking about feelings or frequency.
-&lt;/think&gt;
-You've just walked in the door after a long day at work, and the thought of making dinner feels like climbing Mount Everest. What do you do?</t>
+          <t>You just clocked out after a day where every email felt like climbing a mountain. As you reach for the remote, you notice a flyer taped to your fridge for a spontaneous weekend getaway to a cozy cabin by the lake.  The door creaks softly behind you...</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -3090,7 +2227,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -3101,16 +2238,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the given assessment question into a fun, engaging real-life scenario. The question is: "Working with people all day long requires a great deal of effort." 
-First, I should understand the essence of the question. It's about whether interacting with people at work feels draining or not. So, the scenario should capture that feeling of needing to put in a lot of effort when dealing with others all day.
-Looking at the example provided, it's light, humorous, and relatable. The example uses a situation where the user is reading a meme caption multiple times because their brain wandered off, which relates to trouble concentrating. The response options are about what they'd do next, which ties into how they handle the situation.
-So, for the given question, I need to create a similar scenario. Let's think about a common work situation where someone might feel drained from interacting with people all day. Maybe something like a busy day at the office with lots of meetings or interactions.
-I want to make it relatable and a bit funny. Maybe something about pretending to be a morning person or handling multiple tasks. Let's see... "You've been 'on' all day—pretending to be a morning person, remembering everyone's names, and nodding through another brainstorming session. What's left in your social battery?"
-This scenario puts the user in a situation where they've been interacting a lot, using up their social energy. The question then is about their response, which would indicate how much effort it takes for them to keep going. The options would likely be on a scale from 0 to 4, where 0 might be "I'm done for the day" and 4 might be "I've got this, bring it on!"
-I think this captures the psychological aspect of the original question by illustrating a situation where social interaction at work is draining, and the user's choice reflects how much effort it requires for them to continue.
-&lt;/think&gt;
-You've been 'on' all day—pretending to be a morning person, remembering everyone's names, and nodding through another brainstorming session. What's left in your social battery?</t>
+          <t>You just clocked out after a marathon meeting filled with brainstorming sessions and team collaborations. The door swings shut behind you, and you're standing in the quiet hallway, keys jingling in your hand. The thought of heading straight home for a cozy evening versus volunteering to lead tomorrow’s workshop pops into your mind.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -3126,7 +2254,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -3137,18 +2265,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel like my work is breaking me down" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and made the situation relatable.
-First, I should understand the essence of the original question. It's about feeling overwhelmed or drained by work. The user is likely experiencing stress or burnout. The scenario should capture that feeling without being too heavy.
-I need to create a situation that's realistic and short, maybe 1-2 sentences. It should be something the user can imagine themselves in. Using humor or a relatable moment would make it engaging.
-Thinking about work-related stress, common scenarios might involve long hours, too many tasks, or feeling undervalued. Maybe something like a never-ending to-do list or a chaotic work environment.
-I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their response. The scenario should still reflect the psychological aspect of feeling broken down by work.
-Perhaps something like a Monday morning where the tasks are piling up, or a situation where the user feels like they're drowning in work. Adding a bit of humor, like a coffee cup with a sarcastic message, could make it more relatable and light.
-Let me try to draft a scenario: "You're sitting at your desk on a Monday morning, and your to-do list is longer than your coffee break. What do you do next?" Hmm, that's okay, but maybe it can be more vivid.
-Another idea: "Your inbox is blowing up, your phone won't stop buzzing, and you're starting to think the coffee mug that says 'World's Okayest Employee' might be lying to you. What's your move?" This adds a bit of humor with the coffee mug and the chaotic situation.
-I think that captures the feeling of being overwhelmed by work, uses a relatable and slightly humorous tone, and is concise. It also allows the user to imagine their response, which can be scaled based on how they would react.
-&lt;/think&gt;
-Your inbox is blowing up, your phone won't stop buzzing, and you're starting to think the coffee mug that says 'World's Okayest Employee' might be lying to you. What's your move?</t>
+          <t>Your inbox overflows with meeting invites and deadlines, casting a shadow over your comfy office chair as the afternoon sun slants through the blinds, tempting you to just...stay put.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3164,7 +2281,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -3175,19 +2292,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel frustrated by my work" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their next move. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for "I feel frustrated by my work," I need a similar approach. Maybe a common work situation that's frustrating but can be made light. Let me brainstorm some ideas.
-1. Spilling coffee on a report right before a meeting. That's relatable and a bit funny.
-2. Computer freezing when you're on a deadline. Also relatable and can be humorous.
-3. A project getting rejected after putting in a lot of effort. That's frustrating but can be presented in a light way.
-I think the coffee spill is a good candidate. It's a simple, visual scenario that many can relate to. Plus, it's easy to add a bit of humor to it.
-So, the scenario could be: "You've just spilled coffee all over the report you stayed up late finishing, and your boss is about to walk in for the meeting. What do you do?" It's short, relatable, and captures the frustration without being too heavy.
-Wait, does it capture the essence of feeling frustrated by work? Yes, because the spill adds unexpected stress on top of work, which can lead to frustration.
-I think that works. It's light, slightly humorous, and puts the user in a situation where they have to decide their next move, which reflects how they handle frustration at work.
-&lt;/think&gt;
-You've just spilled coffee all over the report you stayed up late finishing, and your boss is about to walk in for the meeting. What do you do?</t>
+          <t>Your boss just sent out a company-wide email announcing a surprise team lunch...at a cafeteria known for its questionable mystery meat.  You're staring at the email, inbox begging for attention.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3203,7 +2308,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -3214,23 +2319,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the question "I feel I work too hard at my job" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in the moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and puts the user in a situation where they can imagine their reaction.
-So, for "I feel I work too hard at my job," I need to create a similar scenario. Maybe something that shows working beyond normal hours or taking work home. It should be something people can relate to, like working late or on weekends.
-I could think of a situation where the user is still working while others are relaxing. Maybe it's the weekend, and they're still at their desk. Or perhaps they're working late at night when they should be resting. Adding a humorous twist, like comparing work to a bad relationship, could make it more engaging.
-Let me try drafting a few ideas:
-1. "It's Saturday morning, and while everyone else is sipping coffee and binge-watching their favorite shows, you're still staring at spreadsheets. What do you do next?"
-2. "You've been at your desk for hours, and your plants are starting to look more relaxed than you. Time to..."
-3. "Your friends are out having fun, but you're stuck in a meeting that could've been an email. What's your move?"
-4. "You just realized you've worked 12 hours straight, and your dinner is still in the microwave from lunch. What now?"
-5. "It's 10 PM, and you're still responding to emails while your bed is calling your name. What do you do?"
-I think the first one is good because it contrasts the weekend relaxation with work, which highlights overworking. The second one uses plants as a humorous comparison. The third one is relatable but maybe a bit too specific. The fourth one adds a personal consequence (uneaten dinner), which can evoke empathy. The fifth one is straightforward and common.
-I think the example provided by the user was about working late on a weekend, so maybe that's a solid approach. Let me refine it to include a humorous element, like comparing work to a bad relationship.
-So, combining the weekend scenario with a humorous twist: "It's Sunday evening, and while your friends are posting beach selfies, you're still crunching numbers like your job is a bad boyfriend who won't let you go. What do you do?"
-This captures the feeling of overworking, uses a relatable situation, adds humor with the bad boyfriend analogy, and is concise.
-&lt;/think&gt;
-It's Sunday evening, and while your friends are posting beach selfies, you're still crunching numbers like your job is a bad boyfriend who won't let you go. What do you do?</t>
+          <t>Your boss just sent out a company-wide email announcing a surprise project launch meeting—this afternoon, right after lunch. As you munch on your sandwich, visions of spreadsheets and deadlines dance before your eyes.  😴💪</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3246,7 +2335,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -3257,36 +2346,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "It stresses me too much to work in direct contact with people" into a fun, engaging real-life scenario. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and made the situation relatable.
-First, I should understand the essence of the original question. It's about feeling stressed when having to work directly with people. So, the scenario should capture that feeling of stress or anxiety in a social or work setting.
-I need to make it realistic and short, just 1-2 sentences. The tone should be light and slightly humorous. Also, I should avoid phrases like "how often" or "do you feel." Instead, describe a situation where the user imagines themselves and chooses how they'd respond.
-Thinking about relatable situations where interacting with people at work can be stressful. Maybe a busy environment, like a café or a meeting. The example used a parallel universe, which is a creative way to express distraction. I need something similar but for social stress.
-Perhaps a situation where the user is in a crowded place, like a coffee shop, and has to interact with a lot of people. Or maybe in a meeting where they have to present something. The key is to make it something the user can imagine themselves in and then decide their reaction.
-Let me brainstorm a few ideas. Maybe something like being at a party and having to mingle, but that's more social than work. Or being in a busy office where everyone is approaching them. Alternatively, working in a team project where they have to collaborate closely.
-Wait, the example used a meme, which is casual. Maybe I can use a similar casual setting but related to work. How about working in a shared space where people keep interrupting? Or perhaps a customer service scenario where dealing with customers is stressful.
-I think a customer service setting could work. It's a common work environment where direct contact with people is required. So, maybe the user is working as a barista, and the café is packed with demanding customers. They have to keep making drinks while handling difficult customers. That could be stressful.
-Alternatively, maybe a scenario where they're at a networking event and have to make small talk all day. That could also capture the stress of direct contact.
-I need to make it light and humorous. So, perhaps exaggerate the situation a bit. Like, "You're at a bustling café where every customer seems to have a complicated order, and your introvert battery is on 1%." Then, the user has to choose how they'd handle it.
-Wait, the example ended with a question about the next move. So, I should frame it similarly. Maybe something like, "You're working the register on a busy Saturday, and every customer has a special request. What do you do?"
-Hmm, but I need to make it more engaging. Maybe add a bit of humor about the stress. Like, "You're juggling a million tasks at work, and your coworkers won't stop asking you questions. How do you handle it?"
-Wait, the original question is about stress from direct contact, not just being busy. So, the stress is specifically from interacting with people, not just the workload.
-So, perhaps a scenario where the user is in a role that requires constant people interaction, like a retail job during peak hours. Each customer is asking for something, and the user feels overwhelmed by the constant interaction.
-I think I can model it after the example. The example used a relatable, everyday situation with a humorous twist. So, maybe something like, "You're at a coffee shop, and the line is out the door with each person ordering a complicated drink. Your social energy is running low. What's your next move?"
-Alternatively, "You're working as a barista on a busy morning, and every customer has a special request. How do you keep your cool?"
-Wait, but the example ended with a question about the next move, prompting the user to choose their response. So, I should structure it similarly.
-Let me try to craft it: "You're manning the register on a chaotic Black Friday sale, and customers are lining up with endless questions. Your patience is wearing thin. What do you do?"
-Hmm, that's a bit long. Maybe make it shorter. "You're working retail on a busy Saturday, and customers keep asking you the same questions. How do you handle it?"
-Alternatively, "You're at a crowded market, and strangers keep stopping you to chat. Your energy is draining. What's your move?"
-Wait, but the original question is about working in direct contact, so it's more about the work environment. So, perhaps a scenario in a workplace where they have to interact with colleagues or clients.
-Maybe, "You're in a meeting where everyone is talking at once, and you're supposed to contribute. How do you handle the chaos?"
-Alternatively, "You're leading a team project, and each member has a different opinion. The discussions are getting heated. What do you do?"
-Wait, but the stress is specifically from the direct contact, not from the workload or differing opinions. So, perhaps a scenario where the user is in a customer-facing role and feels stressed by the constant interactions.
-I think I have a good idea. Let me try to put it together in a concise, engaging way with a bit of humor.
-"You're working as a barista on a busy morning, and the line is filled with caffeine-deprived zombies. Each customer has a complicated order, and your introvert battery is on 1%. What's your next move?"
-That captures the stress of direct contact, uses a relatable and slightly humorous scenario, and prompts the user to imagine their response.
-&lt;/think&gt;
-"You're working as a barista on a busy morning, and the line is filled with caffeine-deprived zombies. Each customer has a complicated order, and your introvert battery is on 1%. What's your next move?"</t>
+          <t>Your inbox pings with an invitation to a surprise birthday party for a colleague. The room already buzzes with chatter and laughter as you approach the door.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -3302,7 +2362,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3313,20 +2373,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel like I’m at the end of my rope" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. "I feel like I’m at the end of my rope" is an idiom meaning feeling overwhelmed, stressed, or at one's limit. So the scenario should evoke that feeling of being overwhelmed or stretched too thin.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture of the situation.
-So, I need to create a similar scenario. Maybe something involving everyday tasks or situations where someone feels overwhelmed. Let's brainstorm some ideas.
-1. Maybe something with work or personal tasks piling up. Like having too many tabs open on the computer, both literally and metaphorically.
-2. Or dealing with multiple responsibilities at once, like juggling too many things.
-3. Perhaps something more physical, like carrying too many bags or items.
-I think the computer tabs idea is good because it's relatable to many people, especially with the rise of remote work and multitasking. It also allows for a bit of humor.
-So, the scenario could be: "Your computer has 12 tabs open, your to-do list is longer than your patience, and you just spilled coffee on your notes. What do you do?"
-This captures the feeling of being overwhelmed (12 tabs, long to-do list, spilled coffee) and presents a moment where the user has to decide how to react. It's light and humorous, using the relatable situation of a cluttered computer and a minor accident (spilled coffee) to illustrate feeling at the end of one's rope.
-I think this works because it's a common scenario many can relate to, uses a bit of humor, and clearly conveys the feeling of being overwhelmed without being too heavy.
-&lt;/think&gt;
-Your computer has 12 tabs open, your to-do list is longer than your patience, and you just spilled coffee on your notes. What do you do?</t>
+          <t>The weekend's over, Monday's knocking on your door, and your inbox is already looking like a mountain range. You reach for your coffee mug, which is shockingly empty, and glance at the pile of work waiting to be tackled.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3342,7 +2389,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3353,17 +2400,8 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel I look after certain patients/clients impersonally, as if they are objects" into a fun, engaging real-life scenario. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they would respond. The scenario should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about feeling impersonal towards patients or clients, treating them like objects. This could relate to depersonalization or burnout in professionals like nurses, doctors, or therapists.
-I should create a scenario that puts the user in a situation where they might feel this way. Maybe a busy workday where they're overwhelmed. Using a relatable setting, like a coffee shop, could make it more engaging. The scenario should present a moment where the user has to choose how to respond, showing whether they're feeling impersonal or not.
-I should add humor to make it light. Maybe something about treating people like objects in a funny way, like pawns in a game. The example provided used a meme, so perhaps something similar but in a different context.
-Let me think of a situation. Maybe the user is a barista, which is a relatable job. They're slammed with orders, and they start seeing customers as objects, like coffee cups. Then, a regular customer comes in, and the user has to decide how to react. This choice can reflect their level of impersonalization.
-I need to make sure the scenario is short and to the point. It should end with a question that prompts the user to choose their response, which will be scaled.
-Putting it all together, the scenario should be engaging, humorous, and capture the essence of feeling impersonal towards clients. It should allow the user to imagine themselves in that moment and choose their response, indicating how strongly they feel that way.
-I think I've got a good structure. Now, I'll draft the scenario accordingly.
-&lt;/think&gt;
-You're a barista on a chaotic morning shift, juggling a million orders. As the line grows, you start seeing customers as just coffee cups with legs. Then, your regular, Dave, walks in with his usual smile. What do you do?</t>
+          <t>You just clocked in at the bustling café where every customer is a puzzle piece in your day. Today, a regular walks in, their usual order in hand, but today you catch a glimpse of a worried look. Do you:
+*...reach for their usual order autopilot style, or do you perk up, ready to engage with a little extra care and attention?*</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3379,7 +2417,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -3390,23 +2428,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the given clinical question into a fun, engaging real-life scenario for a mental wellness app. The question is about feeling tired in the morning when facing another workday. 
-First, I should understand the essence of the question. It's about morning fatigue related to work. The goal is to create a relatable, slightly humorous situation where the user imagines themselves and chooses their response.
-Looking at the example provided, it's concise, uses a light tone, and includes a choice. I need to follow that structure. 
-I should avoid phrases like "how often" and instead describe a situation. Maybe something that happens every morning, like hitting the snooze button. That's a common, relatable experience.
-I want to add a bit of humor. Maybe personify the snooze button as a tempting friend. That makes it more engaging. 
-So, the scenario could involve waking up, hitting snooze, and then deciding what to do next. The choices should reflect different reactions to morning fatigue, allowing the user to pick how they'd respond.
-I need to keep it short, just a couple of sentences. Let me try drafting it.
-"Your alarm blares for the third time, and hitting snooze feels like the only sane option. What do you do next?"
-Hmm, that's good, but maybe add a bit more humor. Perhaps personify the snooze button as a tempting friend.
-"Your alarm blares for the third time, and hitting snooze feels like the only sane option. What do you do next?"
-Wait, that's similar to the example. Maybe make it a bit more vivid.
-"Your alarm is blaring, and the snooze button is calling your name like an old friend. Do you answer?"
-Yes, that adds a bit of personification and humor. It's relatable and sets up a clear choice for the user.
-I think that captures the essence of the original question while making it engaging and light-hearted.
-&lt;/think&gt;
-Your alarm is blaring, and the snooze button is calling your name like an old friend. Do you answer?</t>
+          <t>Your alarm clock sings its morning aria, but all you hear is heavy metal.  Sunlight tries to peek through the blinds, daring you to emerge from under the warm cocoon of your blankets.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3422,7 +2444,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -3433,16 +2455,8 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I have the impression that my patients/clients make me responsible for some of their problems" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. 
-First, I should understand the essence of the question. It's about feeling responsible for clients' problems. So, the scenario should capture that feeling without using phrases like "how often" or "do you feel." It needs to be light, humorous, and relatable.
-Looking at the example provided, it's a short, funny situation that ends with a question prompting the user's next move. I should aim for something similar. 
-Let me brainstorm. Maybe a situation where a client is overly dependent or blaming. Perhaps in a coffee shop setting, as it's a common, relatable place. The client could be acting dramatically, like spilling coffee, to add humor. 
-I need to make sure the scenario is realistic and short, just 1-2 sentences. The response should fit a scale, so the user's reaction can vary in strength or type.
-Putting it together: A client spills coffee and dramatically blames the user for their life's mess. The user's next move is the question. It's light, relatable, and captures the feeling of being held responsible.
-I think that works. It's humorous with the coffee spill and the dramatic flair, making it engaging without being too heavy.
-&lt;/think&gt;
-Your client dramatically spills their coffee all over the table, looks you dead in the eye, and declares, "This is exactly how you've ruined my life!" What do you do next?</t>
+          <t>You just received a flurry of texts from your friend detailing their latest dating drama, expecting you to not only listen but also provide a foolproof solution. Your couch beckons, complete with a cozy blanket and a tempting TV marathon.  
+[Slider: 0 (Stay cocooned, blanket wins) to 5 (Spring up, ready to tackle the drama detective work)]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3458,7 +2472,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -3469,20 +2483,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I am at the end of my patience at the end of my work day" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. It used a light, humorous tone and was relatable.
-First, I should understand the essence of the original question. It's about feeling impatient, especially towards the end of the workday. The user is likely feeling stressed or overwhelmed, maybe frustrated with their tasks or colleagues.
-I need to create a situation that captures that feeling. It should be realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous to keep it engaging. I should avoid phrases like "how often" or "do you feel," and instead describe a scenario where the user can imagine their response.
-Thinking about common end-of-workday scenarios, maybe something like a computer freezing or a last-minute task. Those situations can test one's patience. Let me brainstorm a few ideas.
-1. Your computer freezes right as you're about to finish a report. What do you do?
-2. A coworker asks you to do one more thing just as you're leaving. How do you react?
-3. You spill coffee on your desk as you're packing up. What's your move?
-I think the second option is good because it's a common occurrence and can really test patience. It's relatable and allows the user to imagine how they'd respond. Now, I need to phrase it in a light, humorous way.
-Maybe something like: "Your coworker pops by your desk with 'just one more thing' as you're grabbing your jacket to leave. What's your next move?" That's concise, realistic, and captures the feeling of impatience.
-I should make sure it's suitable for a scale response, so the user can choose how strongly they react. The scenario should still reflect the psychological aspect of feeling at the end of one's patience.
-I think that works. It's engaging, relatable, and maintains the required tone.
-&lt;/think&gt;
-Your coworker pops by your desk with 'just one more thing' as you're grabbing your jacket to leave. What's your next move?</t>
+          <t>The clock is ticking past 6 PM, and your inbox keeps pinging with "Urgent" messages, but your desk chair feels more like a cozy hammock with the sun setting outside. Your favorite show is about to start, and your couch is calling your name louder than your boss ever could.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3498,7 +2499,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -3509,18 +2510,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I really don’t care about what happens to some of my patients/clients" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. The tone should be light, slightly humorous, and relatable. The scenario needs to be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their response. It should still capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the essence of the question. It's about feeling apathy towards patients or clients. So, the scenario should reflect a moment where someone might feel indifferent about someone else's situation.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and paints a clear picture.
-So, for the given question, I need to create a similar scenario. Maybe a situation where a professional is dealing with a client but feels disconnected. Let's think of a common situation, like a meeting or a session where the client is talking about something, but the professional isn't invested.
-I should make it light and slightly humorous. Maybe something like a client sharing a problem, but the professional is distracted or uninterested. The scenario should prompt the user to think about how they would react in that moment.
-Let me try drafting it: "You're in a meeting with a client who's sharing their latest drama, but honestly, you're more invested in your post-lunch coffee break. What do you do?" Hmm, that's a bit short and captures the feeling of indifference. It's relatable because everyone has moments where they're distracted or not fully present.
-Wait, maybe I can make it a bit more engaging. Perhaps something like, "Your client is recounting their latest issue, but your mind keeps drifting to your weekend plans. How do you handle it?" That's also good, but maybe a bit too focused on the distraction rather than the apathy.
-I think the first version I had is better because it directly ties the client's situation to the professional's lack of interest, using the coffee break as a humorous contrast. It's light and relatable, and it clearly presents a moment where the user has to choose how to respond, which can then be scaled based on their reaction.
-So, the scenario would be: "You're in a meeting with a client who's sharing their latest drama, but honestly, you're more invested in your post-lunch coffee break. What do you do?" This captures the essence of the original question by highlighting a lack of care towards the client's situation, using a relatable and slightly humorous situation.
-&lt;/think&gt;
-You're in a meeting with a client who's sharing their latest drama, but honestly, you're more invested in your post-lunch coffee break. What do you do?</t>
+          <t>You just got a notification that one of your long-term clients needs an unexpected check-in. Outside your window, the sun is casting a lazy glow, and your favorite show is about to start.  The remote is within reach.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3536,7 +2526,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -3547,16 +2537,8 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I have become more insensitive to people since I’ve been working" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, turning it into a relatable and slightly humorous situation where the user imagines themselves in that moment and chooses how they'd respond.
-First, I should understand the essence of the original question. It's about someone feeling like they've become less sensitive or caring towards others since starting work. This could be due to stress, long hours, or the pressures of the job making them more focused on tasks than people.
-Now, I need to create a scenario that captures this feeling. It should be realistic, short, and have a light, humorous tone. The scenario should present a situation where the user has to imagine how they would react, which will help assess their level of insensitivity.
-Thinking about common workplace situations, a meeting where a coworker shares personal news could be a good setting. If the user's character is too focused on work, they might not react with the usual empathy. Maybe the coworker is excited about something, like a new pet, which is a relatable and light-hearted event.
-So, the scenario could involve a coworker sharing something personal, and the user's character is preoccupied with work tasks. The humor comes from the contrast between the coworker's excitement and the user's distraction. The response options would then gauge how the user reacts, from being too busy to showing genuine interest.
-I should make sure the scenario is concise, maybe one or two sentences, and avoid any phrases like "how often." Instead, it should describe the situation and let the user imagine their response. The example provided used a meme caption, so I'll aim for a similar casual tone.
-Putting it all together, the scenario should present a relatable workplace moment where the user's focus on work might lead them to be less attentive to others. This captures the essence of becoming more insensitive without being too heavy or clinical.
-&lt;/think&gt;
-Your coworker excitedly shares news about their new puppy, but you're too busy juggling deadlines to muster more than a distracted smile. How do you handle it?</t>
+          <t>Your best friend calls, bubbling over with excitement about their weekend plans, but all you can muster is a polite "uh-huh" while secretly dreaming of that extra hour of sleep.  
+[Slider from 0 (staying glued to your pillow) to 5 (jumping up to enthusiastically plan your next adventure together)]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -3572,7 +2554,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -3583,16 +2565,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I’m afraid that this job is making me uncaring" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in the situation and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I shouldn't use phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the original question. It's about someone fearing that their job is making them uncaring. So, they're concerned that their job is affecting their empathy or concern for others. The scenario should reflect that feeling.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, humorous, and sets up a situation where the user can imagine their response.
-So, for the new question, I need a similar setup. Maybe a situation at work where the person feels like they're becoming less caring. Perhaps a moment where they're supposed to care about something but don't feel like it. It should be light and not too heavy.
-I could think of a situation where a coworker comes to them with a problem, but the person feels indifferent. That captures the essence of feeling uncaring. Adding a humorous twist, like the coworker's problem being something trivial, could make it more relatable and light.
-So, something like: "Your coworker comes to you in a panic because they can't find their favorite pen, and honestly, you can't muster up the energy to care. What do you do?" This sets up the situation where the user has to choose how to respond, reflecting their level of concern or indifference.
-I think this works because it's a common workplace scenario, the missing pen is a relatable issue, and the reaction of not caring ties back to the fear of becoming uncaring due to the job. It's also short and humorous, fitting the guidelines.
-&lt;/think&gt;
-Your coworker comes to you in a panic because they can't find their favorite pen, and honestly, you can't muster up the energy to care. What do you do?</t>
+          <t>Your team just won a big project bid, and your boss excitedly sends out a group email celebrating. You open it while still in your comfy pajamas, contemplating your next move.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3608,7 +2581,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -3619,15 +2592,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I accomplish many worthwhile things in this job" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and puts the user in a situation where they have to think about their reaction.
-So, for the question about accomplishing worthwhile things at work, I need to create a scenario where the user feels a sense of achievement. Maybe something like receiving positive feedback or completing a project. It should be a moment where they can reflect on their accomplishments.
-I should make it light and slightly humorous. Maybe something involving a celebration or a sense of pride. Let's think about a work scenario where the user feels accomplished. Perhaps they've just finished a big project and are reflecting on their success.
-Putting it together: "You just wrapped up a big project at work and your boss (and maybe even your cat) is impressed. How does that feel?" This captures the sense of accomplishment, adds a bit of humor with the cat being impressed, and asks the user to reflect on their feelings, which ties into the scale response about how strongly they feel about their accomplishments.
-I think this fits the guidelines. It's short, relatable, uses humor, and puts the user in a situation where they can imagine their response. It also maintains the psychological aspect of feeling accomplished in their job.
-&lt;/think&gt;
-You just wrapped up a big project at work and your boss (and maybe even your cat) is impressed. How does that feel?</t>
+          <t>Your boss just emailed you a new project—one that could really make a difference in your team’s success, maybe even get you that long-awaited promotion. The email icon bounces merrily on your screen, beckoning you to open it up and dive in.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3643,7 +2608,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3654,24 +2619,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel full of energy" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they'd respond. The tone should be light, slightly humorous, and relatable. It should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their actions. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Looking at the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's relatable, uses humor, and puts the user in a situation where they can imagine their reaction.
-So, for "I feel full of energy," I need a scenario where the person has excess energy. Maybe a common situation where energy levels are high. Think of activities that people with lots of energy might do. Maybe something like cleaning, organizing, or being restless.
-I should make it humorous. Maybe something unexpected happening because of the energy. Like, maybe they're so energetic that they start doing something unusual or over-the-top.
-Let me brainstorm some ideas. Maybe they're bouncing around the house, or maybe they're so energetic they start a spontaneous project. Or perhaps they're at a point where they can't sit still and decide to do something active.
-I think the example used a relatable situation with a humorous twist. So, perhaps something like: "You've just cleaned your entire house, organized your sock drawer, and you're now considering rearranging your furniture... and it's only 8 AM. What do you do next?"
-Wait, that's a bit long. Let me make it shorter. Maybe: "You've cleaned your house, organized your socks, and now you're eyeing the furniture. What's next?"
-Hmm, maybe even more concise. "You've cleaned, organized, and now you're considering rearranging furniture at 8 AM. What's your move?"
-Alternatively, think of a different scenario. Maybe they're at work or somewhere else. But home seems more relatable.
-Another angle: Maybe they're so full of energy they can't sit still, so they start doing something else. Like, "You're so full of energy you've already done three loads of laundry, baked cookies, and now you're staring at the walls thinking about painting them. What's next?"
-But that's a bit lengthy. Let me try to make it shorter and funnier. Maybe: "You've just turned your living room into a dance floor, and your cat is judging you. What's your next move?"
-That's good. It's relatable, humorous, and puts the user in a situation where they can imagine their response. It captures the essence of feeling full of energy by engaging in an energetic activity like dancing, and the cat's judgment adds a funny touch.
-Alternatively, another idea: "You've just organized your entire closet, and now you're considering starting a garden at 7 AM. What do you do?"
-But the dancing scenario feels more engaging and fun. It's something people might actually do when they're full of energy, and the cat's reaction adds a humorous element.
-So, I think the best scenario is: "You've just turned your living room into a dance floor, and your cat is judging you. What's your next move?"
-&lt;/think&gt;
-You've just turned your living room into a dance floor, and your cat is judging you. What's your next move?</t>
+          <t>You just stumbled upon an irresistible sale announcement for your favorite outdoor gear while sipping your morning coffee.  Sunlight streams through the window, promising a perfect day ahead.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3687,7 +2635,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3698,31 +2646,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I am easily able to understand what my patients/clients feel" into a fun, engaging real-life scenario for a mental wellness app. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times because the brain wandered off. The response was light, humorous, and relatable.
-First, I should understand the essence of the original question. It's about empathy, the ability to understand others' emotions easily. So the scenario should reflect a situation where the user has to empathize with someone, perhaps a patient or client.
-I need to make it realistic and short, just 1-2 sentences. The tone should be light and slightly humorous. Also, I should avoid phrases like "how often" or "do you feel." Instead, describe a situation and let the user imagine their response.
-Thinking about a relatable situation in a professional setting, maybe a client is upset. The example used a coffee shop scenario, which is relatable. So perhaps something similar but in a professional context.
-Wait, the example given was about a barista, but the original question is about patients/clients. So maybe a scenario where a client is visibly upset, and the user has to respond. The example used a barista spilling coffee, which is a common mishap. Maybe something similar but in a therapy or client meeting setting.
-Alternatively, maybe a client is sharing a tough situation, and the user has to show empathy. But how to make it light and humorous? Maybe the client is upset about something trivial but in a funny way, like a pet issue or something.
-Wait, the example used a barista, which is a service job, similar to a therapist in a way, both involve understanding others. So perhaps a similar approach: a client is upset, and the user has to respond empathetically.
-But to make it humorous, maybe the client is upset about something unexpected or in a funny way. For example, a client is frustrated because their pet won't behave, or they can't find their keys, something relatable but not too serious.
-Alternatively, maybe the client is having a bad day, and the user has to choose how to respond. The example ended with the user choosing their next move, so the scenario should present a choice point.
-Wait, the example scenario was: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" So it's a situation where the user is distracted, and they have to decide what to do next.
-Similarly, for empathy, the scenario could be a situation where the user is with a client who is upset, and the user has to decide how to respond. But to make it light, maybe the client is upset about something funny, like their favorite show ending or something.
-Alternatively, maybe the client is a friend, and the user is trying to help them through a tough time. But the original question is about patients/clients, so it's more professional.
-Wait, the example used a barista, which is a service job, so maybe the scenario can be in a similar vein. For example, a client is upset because they can't get their favorite coffee drink, and the user has to respond empathetically.
-But I think the example provided by the assistant was: "A client starts telling you about their tough day, and you can practically see the stress clouds hovering over their head. What do you do?" That's a good approach because it's relatable, shows empathy, and presents a choice point.
-So, to follow that, I can think of a similar structure: a client is visibly upset, and the user has to decide how to respond. The scenario should be short, light, and slightly humorous, capturing the essence of empathy.
-Another angle could be a client sharing a funny but stressful situation, like their pet causing trouble, and the user has to show understanding. But the example was more about a tough day, which is broader.
-I think the key is to present a situation where the client is upset, and the user's response is to show empathy. The scenario should be concise and allow the user to imagine their response, which will be scaled based on how strongly they can empathize.
-So, the scenario should be something like: "A client comes in looking stressed, and you can tell they've had a rough morning. What's your next move?" But the example used "stress clouds," which is a nice visual and humorous touch.
-Alternatively, maybe the client is dealing with a common issue, like spilling coffee, as in the example, but in a professional setting. So, "A client spills coffee all over their notes during a meeting and looks frazzled. What do you do?"
-But the original question is about understanding feelings, so the scenario should focus on the emotional state rather than just the event. So, perhaps the client is visibly upset, and the user has to respond with empathy.
-I think the example provided by the assistant is spot on: "A client starts telling you about their tough day, and you can practically see the stress clouds hovering over their head. What do you do?" It's concise, relatable, and presents a clear choice point for empathy.
-So, to sum up, the scenario should present a client in distress, use a light and humorous tone, and allow the user to imagine how they would respond, capturing their ability to empathize.
-&lt;/think&gt;
-A client starts telling you about their tough day, and you can practically see the stress clouds hovering over their head. What do you do?</t>
+          <t>Your favorite coffee shop announces a surprise live acoustic performance starting in 15 minutes.  You're sprawled on the couch, halfway through a novel.  The aroma of freshly brewed coffee drifts in from downstairs.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3738,7 +2662,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -3749,20 +2673,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I look after my patients’/clients’ problems very effectively" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, I'll describe a situation and let the user imagine their actions. It should capture the psychological essence of the original question and be suitable for a scale response.
-First, I need to understand the essence of the original question. It's about effectively handling patients' or clients' problems. So, the scenario should involve a situation where the user is dealing with someone else's issues, perhaps in a work context.
-I should think of a relatable setting. Maybe a workplace, like an office or a clinic. The user is interacting with a patient or client who's stressed. The scenario should show the user's effectiveness in handling the situation.
-To add humor, I can use a common, slightly exaggerated situation. Maybe the client is overwhelmed with something trivial but blown out of proportion, like a spilled coffee. That way, it's relatable and a bit funny.
-I need to make it concise. So, something like: "Your client is on the verge of tears because they spilled coffee on their shirt right before a big meeting. What do you do?" This puts the user in a situation where they have to decide how to help effectively.
-I should ensure that the scenario still reflects the user's ability to handle problems effectively. The response options will likely be on a scale, so the scenario should allow the user to imagine their level of effectiveness.
-Let me check the example provided: "You're reading the same meme caption for the fifth time because your brain just wandered off to a parallel universe. What's your next move?" It's short, relatable, and humorous.
-Applying that style, my scenario should be similarly structured. It should present a problem, add a bit of humor, and ask the user to imagine their response.
-I think the example I came up with fits well. It's a common situation, adds a bit of humor with the spilled coffee, and puts the user in a position where they can demonstrate their problem-solving skills.
-I should make sure there are no phrases like "how often" or "do you feel." Instead, it's a direct situation followed by a question about their action.
-Yes, this should work. It's engaging, relatable, and captures the essence of the original question about effectively handling others' problems.
-&lt;/think&gt;
-Your client is on the verge of tears because they spilled coffee on their shirt right before a big meeting. What do you do?</t>
+          <t>You just received a text from your favorite patient/client expressing a sudden, complex issue they need help with right away. Sun's shining, birds are chirping, but your cozy blanket is whispering sweet nothings into your ear.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3778,7 +2689,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -3789,14 +2700,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the assessment question "In my work, I handle emotional problems very calmly." into a fun, engaging real-life scenario. The user wants the scenario to be light, slightly humorous, and relatable. It should be short, just 1-2 sentences, and avoid phrases like "how often" or "do you feel." Instead, I should describe a situation where the user imagines themselves and chooses how they would respond. The scenario should still capture the psychological essence of the original question, which is about handling emotional problems calmly at work.
-First, I need to think about a typical work situation where emotional problems might arise. Maybe a chaotic environment, like a busy office or a customer-facing job. Adding some humor could involve a relatable, slightly exaggerated situation, like a coworker being overly dramatic or a customer being unreasonable.
-I should create a vivid image that's easy to imagine. Perhaps something like a coworker freaking out over something minor, like a printer jamming, which is a common office issue. Using a metaphor could add humor, like comparing the situation to a soap opera or a reality TV show.
-The scenario should present a choice, so the user can think about how they would react. The options should range from handling it calmly to getting stressed, which ties back to the original question about how well they handle emotional problems at work.
-Putting it all together, I can craft a scenario where the user is in a busy office, a coworker is overreacting, and the user has to decide how to respond. This setup keeps it light, relatable, and humorous while addressing the core of the question.
-&lt;/think&gt;
-Your office is buzzing like a reality TV show finale, and your coworker is dramatically freaking out over a printer jam. What's your move?</t>
+          <t>Your colleague bursts into your office, clearly frazzled after a heated meeting. They need advice on a tricky situation involving a difficult client.  The room suddenly feels a bit too warm.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3812,7 +2716,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3823,18 +2727,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "Through my work, I feel that I have a positive influence on people." into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. The tone should be light, slightly humorous, and relatable. The scenario should be realistic and short, just 1-2 sentences. I should avoid phrases like "how often" or "do you feel." Instead, I'll describe a situation and let the user imagine their response. It should still capture the psychological essence of the original question and be suitable for a scale response.
-Let me think about the original question. It's about feeling that one's work has a positive influence on others. So, I need a scenario where the user's work is making a difference. Maybe something like a colleague or a client showing appreciation. It should feel genuine and relatable.
-I remember the example given was about reading a meme caption multiple times because the brain wandered off. It's a funny, everyday situation that people can relate to. So, I should aim for something similar—something that happens at work but adds a bit of humor or a light-hearted touch.
-Perhaps a situation where a colleague or a client gives positive feedback. Maybe something like a coworker thanking them for their help, or a client leaving a nice note. Adding a humorous twist could make it more engaging. For example, a coworker bringing them coffee as a thank you, or a funny but heartfelt note.
-Let me try to draft a scenario. Maybe something like: "A coworker walks by your desk and says, 'Thanks to your help, I finally understand that project! You're a lifesaver!' They even bring you a coffee. How does this make you feel?" Hmm, that's a bit long, but it captures the positive influence and adds a relatable reward (coffee). It's light and slightly humorous because who doesn't love a good coffee break?
-Wait, maybe I can make it even more engaging. Perhaps the coworker is being a bit dramatic but in a funny way. Like, "A coworker dramatically places a 'World's Best Helper' crown on your desk and says, 'You're the reason I didn't lose my mind this week!' What do you do?" That adds a bit of humor with the crown and the dramatic statement. It's relatable because we all have those moments where a little help makes a big difference.
-Alternatively, maybe a client sends a funny yet heartfelt message. For example, "A client sends you a message saying, 'You've changed my life! (Okay, maybe just my approach to spreadsheets, but still life-changing!)' How does that make you feel?" This adds humor by downplaying the impact but still acknowledging it, making it relatable and light.
-I think the crown idea is good because it's visual and adds a humorous element. It also clearly shows the positive influence the user has had on their coworker. The scenario is short, realistic, and captures the essence of feeling that one's work has a positive impact.
-So, the scenario would be: "A coworker dramatically places a 'World's Best Helper' crown on your desk and says, 'You're the reason I didn't lose my mind this week!' What do you do?" This allows the user to imagine the situation and choose their response based on how they would feel, fitting a scale response.
-&lt;/think&gt;
-A coworker dramatically places a 'World's Best Helper' crown on your desk and says, 'You're the reason I didn't lose my mind this week!' What do you do?</t>
+          <t>You just received an email from a former client thanking you for the advice that changed their career path. As you read through it, your workspace suddenly feels...  [ ] (slider from stay in bed to jump up excited)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -3850,7 +2743,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3861,20 +2754,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I am easily able to create a relaxed atmosphere with my patients/clients" into a fun, engaging real-life scenario for a mental wellness app. The user should imagine themselves in that moment and choose how they would respond. The scenario should be light, slightly humorous, and relatable, and it should capture the psychological essence of the original question without using phrases like "how often" or "do you feel."
-First, I should think about the setting where a professional, like a therapist or a consultant, interacts with a patient or client. The goal is to create a relaxed atmosphere, so I need to imagine a situation where the professional is trying to make the client feel at ease.
-Maybe the client is nervous, fidgeting, or seems tense. The professional has to think of a way to break the ice or make the environment more comfortable. I should add a humorous twist to make it engaging. Perhaps something unexpected happens that the professional can turn into a light-hearted moment.
-For example, the client might spill coffee or knock something over, and the professional uses that as an opportunity to show empathy and humor, thereby creating a relaxed atmosphere. Alternatively, the professional could use a clever quip or a funny analogy to put the client at ease.
-I should make sure the scenario is short, just 1-2 sentences, and ends with a question that prompts the user to choose their response. The response should be suitable for a scale, so the scenario should imply different levels of how easily the user can create a relaxed atmosphere.
-Let me try to draft a few ideas:
-1. "Your client walks in looking like they've just seen a ghost, and you notice they're clutching a coffee cup like it's a lifeline. What do you do to turn this into a chill chat?"
-2. "As your patient fumbles with their coat, you realize they're more nervous than a first-timer at a karaoke bar. How do you help them unwind?"
-3. "Your client is so tense they make a statue look relaxed. You have one chance to make them laugh and set the tone. What's your move?"
-I think the first one is good because it uses a relatable situation (clutching a coffee cup) and a humorous simile ("seen a ghost"), which makes it engaging. It also clearly presents a moment where the professional can choose how to respond, which ties back to their ability to create a relaxed atmosphere.
-So, the final scenario would be: "Your client walks in looking like they've just seen a ghost, and you notice they're clutching a coffee cup like it's a lifeline. What do you do to turn this into a chill chat?"
-&lt;/think&gt;
-Your client walks in looking like they've just seen a ghost, and you notice they're clutching a coffee cup like it's a lifeline. What do you do to turn this into a chill chat?</t>
+          <t>You just walked into your therapy room, and the door closes behind you. Sunlight streams through the window, casting a warm glow over a plush armchair. On the table lies a vase of fresh flowers and a comforting mug of herbal tea. Your patient is settling in, looking a bit anxious.  How ready are you to diffuse any tension with a calm smile and soothing words?</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3890,7 +2770,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3901,18 +2781,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>&lt;think&gt;
-Okay, so I need to convert the clinical question "I feel refreshed when I have been close to my patients/clients at work." into a fun, engaging real-life scenario. The example given was about trouble concentrating, and the scenario involved reading a meme caption multiple times. It used a light, humorous tone and made the situation relatable.
-First, I should understand the essence of the original question. It's about feeling refreshed after being close to patients or clients at work. So, the scenario should capture that positive feeling one gets from interacting closely with others in a professional setting.
-I need to make it realistic and short, maybe 1-2 sentences. The tone should be light and slightly humorous. Also, I should avoid phrases like "how often" or "do you feel." Instead, describe a situation where the user can imagine themselves and choose how they'd respond.
-Thinking about a relatable work scenario, maybe something like a meeting or a client interaction. The example used a meme, which is casual and funny. Maybe I can use a similar approach but tailored to a work setting.
-Perhaps something like a brainstorming session where the user feels energized after collaborating closely with a client. The humor could come from the unexpectedness of the situation, like a client bringing in a unique idea that spices up the meeting.
-I should ensure the scenario still captures the psychological essence—feeling refreshed after close interaction. So, the user's action in the scenario should reflect that positive feeling.
-Putting it all together, I can create a scenario where the user is in a meeting, feels a spark of energy from the client's idea, and then chooses how to respond, which would indicate how refreshed they feel.
-Let me try drafting it: "You're in a brainstorming session with a client, and their wild idea just sparked a burst of energy in you. What do you do next?"
-Hmm, that's concise, relatable, and has a bit of humor with the "wild idea." It also captures the feeling of being refreshed after close interaction. The user can imagine themselves in that moment and choose their response, which ties back to the original question about feeling refreshed.
-&lt;/think&gt;
-You're in a brainstorming session with a client, and their wild idea just sparked a burst of energy in you. What do you do next?</t>
+          <t>You just finished a session with your client who shared a big breakthrough moment, and the room feels electric with positive energy. Suddenly, your colleague taps you on the shoulder with an urgent request to help with a paperwork backlog that's been piling up.  💡</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3928,7 +2797,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0-Never, 1-Few Times Per Year, 2-Once a month, 3-Few Times Per Month, 4-Once a week , 5-Few Times a week , 6-Everyday</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
